--- a/BackTest/2020-01-25 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-25 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:N136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -699,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -734,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1049,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1084,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1119,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1189,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2492,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2562,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2632,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2667,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2702,6 +2771,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2737,6 +2807,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2772,6 +2843,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2807,6 +2879,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2842,6 +2915,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2877,6 +2951,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2912,6 +2987,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2947,6 +3023,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2982,6 +3059,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3017,6 +3095,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3052,6 +3131,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3087,6 +3167,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3122,6 +3203,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3157,6 +3239,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3192,6 +3275,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3227,6 +3311,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3262,6 +3347,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3297,6 +3383,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3332,6 +3419,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3367,6 +3455,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3402,6 +3491,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3437,6 +3527,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3472,6 +3563,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3507,6 +3599,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3542,6 +3635,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3577,6 +3671,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3612,6 +3707,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3647,6 +3743,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3682,6 +3779,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3717,6 +3815,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3752,6 +3851,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3787,6 +3887,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3822,6 +3923,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3857,6 +3959,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3892,6 +3995,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3927,6 +4031,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3962,6 +4067,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3997,6 +4103,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4032,6 +4139,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4067,6 +4175,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4102,6 +4211,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4137,6 +4247,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4172,6 +4283,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4207,6 +4319,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4242,6 +4355,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4277,6 +4391,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4312,6 +4427,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4347,6 +4463,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4382,6 +4499,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4417,6 +4535,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4452,6 +4571,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4487,6 +4607,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4526,6 +4647,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4567,6 +4689,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4610,6 +4733,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4645,6 +4769,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4680,6 +4805,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4719,6 +4845,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4762,6 +4889,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4803,6 +4931,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4846,6 +4975,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4887,6 +5017,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4930,6 +5061,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4971,6 +5103,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5012,6 +5145,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5053,6 +5187,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5094,6 +5229,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5135,6 +5271,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5176,6 +5313,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5217,6 +5355,7 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5258,6 +5397,7 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-25 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-25 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N136"/>
+  <dimension ref="A1:N165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>377.5</v>
+        <v>378.7</v>
       </c>
       <c r="C2" t="n">
-        <v>377.5</v>
+        <v>376.2</v>
       </c>
       <c r="D2" t="n">
-        <v>377.5</v>
+        <v>378.7</v>
       </c>
       <c r="E2" t="n">
-        <v>377.5</v>
+        <v>376.2</v>
       </c>
       <c r="F2" t="n">
-        <v>564</v>
+        <v>41.4474</v>
       </c>
       <c r="G2" t="n">
-        <v>-44392.38691139001</v>
+        <v>-37895.81411139001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>377.7</v>
+        <v>378.5</v>
       </c>
       <c r="C3" t="n">
-        <v>377.5</v>
+        <v>378.5</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7</v>
+        <v>378.5</v>
       </c>
       <c r="E3" t="n">
-        <v>377.5</v>
+        <v>378.5</v>
       </c>
       <c r="F3" t="n">
-        <v>152.7299</v>
+        <v>1.34</v>
       </c>
       <c r="G3" t="n">
-        <v>-44392.38691139001</v>
+        <v>-37894.47411139001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>377.5</v>
+        <v>378.5</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5</v>
+        <v>378.5</v>
       </c>
       <c r="D4" t="n">
-        <v>377.5</v>
+        <v>378.5</v>
       </c>
       <c r="E4" t="n">
-        <v>377.5</v>
+        <v>378.5</v>
       </c>
       <c r="F4" t="n">
-        <v>247.6636</v>
+        <v>117</v>
       </c>
       <c r="G4" t="n">
-        <v>-44392.38691139001</v>
+        <v>-37894.47411139001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>377.5</v>
+        <v>378.5</v>
       </c>
       <c r="C5" t="n">
-        <v>377.5</v>
+        <v>378.5</v>
       </c>
       <c r="D5" t="n">
-        <v>377.5</v>
+        <v>378.5</v>
       </c>
       <c r="E5" t="n">
-        <v>377.5</v>
+        <v>378.5</v>
       </c>
       <c r="F5" t="n">
-        <v>2153.3136</v>
+        <v>126</v>
       </c>
       <c r="G5" t="n">
-        <v>-44392.38691139001</v>
+        <v>-37894.47411139001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>377.5</v>
+        <v>376.2</v>
       </c>
       <c r="C6" t="n">
-        <v>377.5</v>
+        <v>374</v>
       </c>
       <c r="D6" t="n">
-        <v>377.5</v>
+        <v>376.2</v>
       </c>
       <c r="E6" t="n">
-        <v>377.5</v>
+        <v>374</v>
       </c>
       <c r="F6" t="n">
-        <v>80.1716</v>
+        <v>587.1232</v>
       </c>
       <c r="G6" t="n">
-        <v>-44392.38691139001</v>
+        <v>-38481.59731139001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>376.4</v>
+        <v>372.9</v>
       </c>
       <c r="C7" t="n">
-        <v>376.4</v>
+        <v>374</v>
       </c>
       <c r="D7" t="n">
-        <v>376.4</v>
+        <v>374</v>
       </c>
       <c r="E7" t="n">
-        <v>376.4</v>
+        <v>372.7</v>
       </c>
       <c r="F7" t="n">
-        <v>65.6482</v>
+        <v>894</v>
       </c>
       <c r="G7" t="n">
-        <v>-44458.03511139001</v>
+        <v>-38481.59731139001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>375</v>
+        <v>375.8</v>
       </c>
       <c r="C8" t="n">
-        <v>375</v>
+        <v>376.1</v>
       </c>
       <c r="D8" t="n">
-        <v>375</v>
+        <v>376.1</v>
       </c>
       <c r="E8" t="n">
-        <v>375</v>
+        <v>375.8</v>
       </c>
       <c r="F8" t="n">
-        <v>3.2826</v>
+        <v>877.761</v>
       </c>
       <c r="G8" t="n">
-        <v>-44461.31771139001</v>
+        <v>-37603.83631139001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>374.8</v>
+        <v>378.4</v>
       </c>
       <c r="C9" t="n">
-        <v>374.8</v>
+        <v>378.4</v>
       </c>
       <c r="D9" t="n">
-        <v>374.8</v>
+        <v>380.8</v>
       </c>
       <c r="E9" t="n">
-        <v>374.8</v>
+        <v>378.4</v>
       </c>
       <c r="F9" t="n">
-        <v>7.73745997</v>
+        <v>1021.185</v>
       </c>
       <c r="G9" t="n">
-        <v>-44469.05517136001</v>
+        <v>-36582.65131139001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>374</v>
+        <v>380.8</v>
       </c>
       <c r="C10" t="n">
-        <v>374</v>
+        <v>380.8</v>
       </c>
       <c r="D10" t="n">
-        <v>374</v>
+        <v>380.8</v>
       </c>
       <c r="E10" t="n">
-        <v>374</v>
+        <v>380.8</v>
       </c>
       <c r="F10" t="n">
-        <v>10.634</v>
+        <v>4.9103</v>
       </c>
       <c r="G10" t="n">
-        <v>-44479.68917136001</v>
+        <v>-36577.74101139001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>374.5</v>
+        <v>380.8</v>
       </c>
       <c r="C11" t="n">
-        <v>373.9</v>
+        <v>380.8</v>
       </c>
       <c r="D11" t="n">
-        <v>374.5</v>
+        <v>380.8</v>
       </c>
       <c r="E11" t="n">
-        <v>373.9</v>
+        <v>380.8</v>
       </c>
       <c r="F11" t="n">
-        <v>41.1398</v>
+        <v>2139.8978</v>
       </c>
       <c r="G11" t="n">
-        <v>-44520.82897136</v>
+        <v>-36577.74101139001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>373.9</v>
+        <v>380.8</v>
       </c>
       <c r="C12" t="n">
-        <v>373.9</v>
+        <v>380.8</v>
       </c>
       <c r="D12" t="n">
-        <v>373.9</v>
+        <v>380.8</v>
       </c>
       <c r="E12" t="n">
-        <v>373.9</v>
+        <v>380.8</v>
       </c>
       <c r="F12" t="n">
-        <v>21.8572</v>
+        <v>3.3148</v>
       </c>
       <c r="G12" t="n">
-        <v>-44520.82897136</v>
+        <v>-36577.74101139001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>374</v>
+        <v>380.7</v>
       </c>
       <c r="C13" t="n">
-        <v>374</v>
+        <v>380.7</v>
       </c>
       <c r="D13" t="n">
-        <v>374</v>
+        <v>380.7</v>
       </c>
       <c r="E13" t="n">
-        <v>374</v>
+        <v>380.7</v>
       </c>
       <c r="F13" t="n">
-        <v>135.3</v>
+        <v>7.4683</v>
       </c>
       <c r="G13" t="n">
-        <v>-44385.52897136</v>
+        <v>-36585.20931139001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>373</v>
+        <v>380.9</v>
       </c>
       <c r="C14" t="n">
-        <v>372.9</v>
+        <v>377</v>
       </c>
       <c r="D14" t="n">
-        <v>373</v>
+        <v>380.9</v>
       </c>
       <c r="E14" t="n">
-        <v>372.9</v>
+        <v>377</v>
       </c>
       <c r="F14" t="n">
-        <v>36.1954</v>
+        <v>5485</v>
       </c>
       <c r="G14" t="n">
-        <v>-44421.72437136</v>
+        <v>-42070.20931139001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C15" t="n">
-        <v>371.9</v>
+        <v>379</v>
       </c>
       <c r="D15" t="n">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="E15" t="n">
-        <v>371.9</v>
+        <v>379</v>
       </c>
       <c r="F15" t="n">
-        <v>992.2753</v>
+        <v>1.4</v>
       </c>
       <c r="G15" t="n">
-        <v>-45413.99967136</v>
+        <v>-42068.80931139001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>371.9</v>
+        <v>377</v>
       </c>
       <c r="C16" t="n">
-        <v>371.8</v>
+        <v>377</v>
       </c>
       <c r="D16" t="n">
-        <v>371.9</v>
+        <v>377</v>
       </c>
       <c r="E16" t="n">
-        <v>371.8</v>
+        <v>377</v>
       </c>
       <c r="F16" t="n">
-        <v>2100.6359</v>
+        <v>1.4</v>
       </c>
       <c r="G16" t="n">
-        <v>-47514.63557136</v>
+        <v>-42070.20931139001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>372.7</v>
+        <v>378.9</v>
       </c>
       <c r="C17" t="n">
-        <v>372.7</v>
+        <v>378.9</v>
       </c>
       <c r="D17" t="n">
-        <v>372.7</v>
+        <v>378.9</v>
       </c>
       <c r="E17" t="n">
-        <v>372.7</v>
+        <v>378.9</v>
       </c>
       <c r="F17" t="n">
-        <v>1021.4141</v>
+        <v>1.4</v>
       </c>
       <c r="G17" t="n">
-        <v>-46493.22147136</v>
+        <v>-42068.80931139001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>371.8</v>
+        <v>377</v>
       </c>
       <c r="C18" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D18" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E18" t="n">
-        <v>371.8</v>
+        <v>377</v>
       </c>
       <c r="F18" t="n">
-        <v>468.5313</v>
+        <v>398.5807</v>
       </c>
       <c r="G18" t="n">
-        <v>-46024.69017135999</v>
+        <v>-42467.39001139001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>371.8</v>
+        <v>377.9</v>
       </c>
       <c r="C19" t="n">
-        <v>371.8</v>
+        <v>377.9</v>
       </c>
       <c r="D19" t="n">
-        <v>373</v>
+        <v>377.9</v>
       </c>
       <c r="E19" t="n">
-        <v>371.8</v>
+        <v>377.9</v>
       </c>
       <c r="F19" t="n">
-        <v>1316</v>
+        <v>52.792</v>
       </c>
       <c r="G19" t="n">
-        <v>-47340.69017135999</v>
+        <v>-42414.59801139001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>371.9</v>
+        <v>377.8</v>
       </c>
       <c r="C20" t="n">
-        <v>371.8</v>
+        <v>378.9</v>
       </c>
       <c r="D20" t="n">
-        <v>371.9</v>
+        <v>378.9</v>
       </c>
       <c r="E20" t="n">
-        <v>371.8</v>
+        <v>377.8</v>
       </c>
       <c r="F20" t="n">
-        <v>571.9557</v>
+        <v>1860</v>
       </c>
       <c r="G20" t="n">
-        <v>-47340.69017135999</v>
+        <v>-40554.59801139001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>371.8</v>
+        <v>377.6</v>
       </c>
       <c r="C21" t="n">
-        <v>371.8</v>
+        <v>377.6</v>
       </c>
       <c r="D21" t="n">
-        <v>371.8</v>
+        <v>377.6</v>
       </c>
       <c r="E21" t="n">
-        <v>371.8</v>
+        <v>377.6</v>
       </c>
       <c r="F21" t="n">
-        <v>870</v>
+        <v>3110</v>
       </c>
       <c r="G21" t="n">
-        <v>-47340.69017135999</v>
+        <v>-43664.59801139001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>372.8</v>
+        <v>377.6</v>
       </c>
       <c r="C22" t="n">
-        <v>372.8</v>
+        <v>377.6</v>
       </c>
       <c r="D22" t="n">
-        <v>372.8</v>
+        <v>377.6</v>
       </c>
       <c r="E22" t="n">
-        <v>372.8</v>
+        <v>377.6</v>
       </c>
       <c r="F22" t="n">
-        <v>15.9806</v>
+        <v>4155.2565</v>
       </c>
       <c r="G22" t="n">
-        <v>-47324.70957135999</v>
+        <v>-43664.59801139001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>370.5</v>
+        <v>378.9</v>
       </c>
       <c r="C23" t="n">
-        <v>370.1</v>
+        <v>378.9</v>
       </c>
       <c r="D23" t="n">
-        <v>370.5</v>
+        <v>378.9</v>
       </c>
       <c r="E23" t="n">
-        <v>370.1</v>
+        <v>378.9</v>
       </c>
       <c r="F23" t="n">
-        <v>3000</v>
+        <v>1.4</v>
       </c>
       <c r="G23" t="n">
-        <v>-50324.70957135999</v>
+        <v>-43663.19801139001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>370.2</v>
+        <v>377.4</v>
       </c>
       <c r="C24" t="n">
-        <v>370.2</v>
+        <v>377.4</v>
       </c>
       <c r="D24" t="n">
-        <v>370.2</v>
+        <v>377.4</v>
       </c>
       <c r="E24" t="n">
-        <v>370.2</v>
+        <v>377.4</v>
       </c>
       <c r="F24" t="n">
-        <v>10.85</v>
+        <v>401.6632</v>
       </c>
       <c r="G24" t="n">
-        <v>-50313.85957135999</v>
+        <v>-44064.86121139001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>370.2</v>
+        <v>377.4</v>
       </c>
       <c r="C25" t="n">
-        <v>370</v>
+        <v>377.4</v>
       </c>
       <c r="D25" t="n">
-        <v>370.2</v>
+        <v>377.4</v>
       </c>
       <c r="E25" t="n">
-        <v>370</v>
+        <v>377.4</v>
       </c>
       <c r="F25" t="n">
-        <v>750</v>
+        <v>354</v>
       </c>
       <c r="G25" t="n">
-        <v>-51063.85957135999</v>
+        <v>-44064.86121139001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>370</v>
+        <v>379.9</v>
       </c>
       <c r="C26" t="n">
-        <v>370</v>
+        <v>379.9</v>
       </c>
       <c r="D26" t="n">
-        <v>370</v>
+        <v>379.9</v>
       </c>
       <c r="E26" t="n">
-        <v>370</v>
+        <v>379.9</v>
       </c>
       <c r="F26" t="n">
-        <v>1506.2791</v>
+        <v>1.4</v>
       </c>
       <c r="G26" t="n">
-        <v>-51063.85957135999</v>
+        <v>-44063.46121139001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>370.8</v>
+        <v>377.4</v>
       </c>
       <c r="C27" t="n">
-        <v>370.8</v>
+        <v>377.4</v>
       </c>
       <c r="D27" t="n">
-        <v>370.8</v>
+        <v>377.4</v>
       </c>
       <c r="E27" t="n">
-        <v>370.8</v>
+        <v>377.4</v>
       </c>
       <c r="F27" t="n">
-        <v>225.6964</v>
+        <v>131.8</v>
       </c>
       <c r="G27" t="n">
-        <v>-50838.16317135999</v>
+        <v>-44195.26121139001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>368</v>
+        <v>377.5</v>
       </c>
       <c r="C28" t="n">
-        <v>368</v>
+        <v>377.5</v>
       </c>
       <c r="D28" t="n">
-        <v>368</v>
+        <v>377.5</v>
       </c>
       <c r="E28" t="n">
-        <v>368</v>
+        <v>377.5</v>
       </c>
       <c r="F28" t="n">
-        <v>1989.9875</v>
+        <v>376</v>
       </c>
       <c r="G28" t="n">
-        <v>-52828.15067136</v>
+        <v>-43819.26121139001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,28 +1410,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>370.8</v>
+        <v>379.9</v>
       </c>
       <c r="C29" t="n">
-        <v>370.8</v>
+        <v>379.9</v>
       </c>
       <c r="D29" t="n">
-        <v>370.8</v>
+        <v>379.9</v>
       </c>
       <c r="E29" t="n">
-        <v>370.8</v>
+        <v>379.9</v>
       </c>
       <c r="F29" t="n">
         <v>1.4</v>
       </c>
       <c r="G29" t="n">
-        <v>-52826.75067135999</v>
+        <v>-43817.86121139001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,28 +1446,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>370.8</v>
+        <v>377.5</v>
       </c>
       <c r="C30" t="n">
-        <v>370.8</v>
+        <v>377.9</v>
       </c>
       <c r="D30" t="n">
-        <v>370.8</v>
+        <v>377.9</v>
       </c>
       <c r="E30" t="n">
-        <v>370.8</v>
+        <v>377.5</v>
       </c>
       <c r="F30" t="n">
-        <v>8.7844</v>
+        <v>10.5257</v>
       </c>
       <c r="G30" t="n">
-        <v>-52826.75067135999</v>
+        <v>-43828.38691139001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>369.9</v>
+        <v>377.5</v>
       </c>
       <c r="C31" t="n">
-        <v>369.9</v>
+        <v>377.5</v>
       </c>
       <c r="D31" t="n">
-        <v>369.9</v>
+        <v>377.5</v>
       </c>
       <c r="E31" t="n">
-        <v>369.9</v>
+        <v>377.5</v>
       </c>
       <c r="F31" t="n">
-        <v>7.9252</v>
+        <v>564</v>
       </c>
       <c r="G31" t="n">
-        <v>-52834.67587135999</v>
+        <v>-44392.38691139001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,28 +1518,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>368.8</v>
+        <v>377.7</v>
       </c>
       <c r="C32" t="n">
-        <v>367</v>
+        <v>377.5</v>
       </c>
       <c r="D32" t="n">
-        <v>368.8</v>
+        <v>377.7</v>
       </c>
       <c r="E32" t="n">
-        <v>367</v>
+        <v>377.5</v>
       </c>
       <c r="F32" t="n">
-        <v>1860</v>
+        <v>152.7299</v>
       </c>
       <c r="G32" t="n">
-        <v>-54694.67587135999</v>
+        <v>-44392.38691139001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,28 +1554,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>366.9</v>
+        <v>377.5</v>
       </c>
       <c r="C33" t="n">
-        <v>366.7</v>
+        <v>377.5</v>
       </c>
       <c r="D33" t="n">
-        <v>366.9</v>
+        <v>377.5</v>
       </c>
       <c r="E33" t="n">
-        <v>366.7</v>
+        <v>377.5</v>
       </c>
       <c r="F33" t="n">
-        <v>278.8728</v>
+        <v>247.6636</v>
       </c>
       <c r="G33" t="n">
-        <v>-54973.54867135999</v>
+        <v>-44392.38691139001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1590,28 +1590,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>367.9</v>
+        <v>377.5</v>
       </c>
       <c r="C34" t="n">
-        <v>370.7</v>
+        <v>377.5</v>
       </c>
       <c r="D34" t="n">
-        <v>370.7</v>
+        <v>377.5</v>
       </c>
       <c r="E34" t="n">
-        <v>367.9</v>
+        <v>377.5</v>
       </c>
       <c r="F34" t="n">
-        <v>223.01948314</v>
+        <v>2153.3136</v>
       </c>
       <c r="G34" t="n">
-        <v>-54750.52918821999</v>
+        <v>-44392.38691139001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1626,28 +1626,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>370.6</v>
+        <v>377.5</v>
       </c>
       <c r="C35" t="n">
-        <v>370.6</v>
+        <v>377.5</v>
       </c>
       <c r="D35" t="n">
-        <v>370.6</v>
+        <v>377.5</v>
       </c>
       <c r="E35" t="n">
-        <v>370.6</v>
+        <v>377.5</v>
       </c>
       <c r="F35" t="n">
-        <v>703.1272</v>
+        <v>80.1716</v>
       </c>
       <c r="G35" t="n">
-        <v>-55453.65638821999</v>
+        <v>-44392.38691139001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1662,28 +1662,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>368</v>
+        <v>376.4</v>
       </c>
       <c r="C36" t="n">
-        <v>368</v>
+        <v>376.4</v>
       </c>
       <c r="D36" t="n">
-        <v>368</v>
+        <v>376.4</v>
       </c>
       <c r="E36" t="n">
-        <v>368</v>
+        <v>376.4</v>
       </c>
       <c r="F36" t="n">
-        <v>173.5217</v>
+        <v>65.6482</v>
       </c>
       <c r="G36" t="n">
-        <v>-55627.17808821999</v>
+        <v>-44458.03511139001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1698,28 +1698,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>367.1</v>
+        <v>375</v>
       </c>
       <c r="C37" t="n">
-        <v>367.1</v>
+        <v>375</v>
       </c>
       <c r="D37" t="n">
-        <v>367.1</v>
+        <v>375</v>
       </c>
       <c r="E37" t="n">
-        <v>367.1</v>
+        <v>375</v>
       </c>
       <c r="F37" t="n">
-        <v>546.47</v>
+        <v>3.2826</v>
       </c>
       <c r="G37" t="n">
-        <v>-56173.64808821999</v>
+        <v>-44461.31771139001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1734,28 +1734,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>367.5</v>
+        <v>374.8</v>
       </c>
       <c r="C38" t="n">
-        <v>367.5</v>
+        <v>374.8</v>
       </c>
       <c r="D38" t="n">
-        <v>367.5</v>
+        <v>374.8</v>
       </c>
       <c r="E38" t="n">
-        <v>367.5</v>
+        <v>374.8</v>
       </c>
       <c r="F38" t="n">
-        <v>1108.942</v>
+        <v>7.73745997</v>
       </c>
       <c r="G38" t="n">
-        <v>-55064.70608821999</v>
+        <v>-44469.05517136001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1770,28 +1770,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>369.9</v>
+        <v>374</v>
       </c>
       <c r="C39" t="n">
-        <v>369.9</v>
+        <v>374</v>
       </c>
       <c r="D39" t="n">
-        <v>369.9</v>
+        <v>374</v>
       </c>
       <c r="E39" t="n">
-        <v>369.9</v>
+        <v>374</v>
       </c>
       <c r="F39" t="n">
-        <v>1.4</v>
+        <v>10.634</v>
       </c>
       <c r="G39" t="n">
-        <v>-55063.30608821999</v>
+        <v>-44479.68917136001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1806,28 +1806,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>369.9</v>
+        <v>374.5</v>
       </c>
       <c r="C40" t="n">
-        <v>369.9</v>
+        <v>373.9</v>
       </c>
       <c r="D40" t="n">
-        <v>369.9</v>
+        <v>374.5</v>
       </c>
       <c r="E40" t="n">
-        <v>369.9</v>
+        <v>373.9</v>
       </c>
       <c r="F40" t="n">
-        <v>662.36</v>
+        <v>41.1398</v>
       </c>
       <c r="G40" t="n">
-        <v>-55063.30608821999</v>
+        <v>-44520.82897136</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1842,28 +1842,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>370.8</v>
+        <v>373.9</v>
       </c>
       <c r="C41" t="n">
-        <v>367.5</v>
+        <v>373.9</v>
       </c>
       <c r="D41" t="n">
-        <v>370.8</v>
+        <v>373.9</v>
       </c>
       <c r="E41" t="n">
-        <v>367.5</v>
+        <v>373.9</v>
       </c>
       <c r="F41" t="n">
-        <v>225.4262</v>
+        <v>21.8572</v>
       </c>
       <c r="G41" t="n">
-        <v>-55288.73228821999</v>
+        <v>-44520.82897136</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1878,28 +1878,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C42" t="n">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D42" t="n">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E42" t="n">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F42" t="n">
-        <v>11</v>
+        <v>135.3</v>
       </c>
       <c r="G42" t="n">
-        <v>-55277.73228821999</v>
+        <v>-44385.52897136</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>367.5</v>
+        <v>373</v>
       </c>
       <c r="C43" t="n">
-        <v>367.5</v>
+        <v>372.9</v>
       </c>
       <c r="D43" t="n">
-        <v>367.5</v>
+        <v>373</v>
       </c>
       <c r="E43" t="n">
-        <v>367.5</v>
+        <v>372.9</v>
       </c>
       <c r="F43" t="n">
-        <v>288.8797</v>
+        <v>36.1954</v>
       </c>
       <c r="G43" t="n">
-        <v>-55566.61198821999</v>
+        <v>-44421.72437136</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1953,19 +1953,19 @@
         <v>372</v>
       </c>
       <c r="C44" t="n">
-        <v>372</v>
+        <v>371.9</v>
       </c>
       <c r="D44" t="n">
         <v>372</v>
       </c>
       <c r="E44" t="n">
-        <v>372</v>
+        <v>371.9</v>
       </c>
       <c r="F44" t="n">
-        <v>11</v>
+        <v>992.2753</v>
       </c>
       <c r="G44" t="n">
-        <v>-55555.61198821999</v>
+        <v>-45413.99967136</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>372</v>
+        <v>371.9</v>
       </c>
       <c r="C45" t="n">
-        <v>373</v>
+        <v>371.8</v>
       </c>
       <c r="D45" t="n">
-        <v>373</v>
+        <v>371.9</v>
       </c>
       <c r="E45" t="n">
-        <v>372</v>
+        <v>371.8</v>
       </c>
       <c r="F45" t="n">
-        <v>272.4836</v>
+        <v>2100.6359</v>
       </c>
       <c r="G45" t="n">
-        <v>-55283.12838821999</v>
+        <v>-47514.63557136</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>372</v>
+        <v>372.7</v>
       </c>
       <c r="C46" t="n">
-        <v>373</v>
+        <v>372.7</v>
       </c>
       <c r="D46" t="n">
-        <v>373</v>
+        <v>372.7</v>
       </c>
       <c r="E46" t="n">
-        <v>367.5</v>
+        <v>372.7</v>
       </c>
       <c r="F46" t="n">
-        <v>1462.5843</v>
+        <v>1021.4141</v>
       </c>
       <c r="G46" t="n">
-        <v>-55283.12838821999</v>
+        <v>-46493.22147136</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>371.8</v>
+      </c>
+      <c r="C47" t="n">
         <v>373</v>
-      </c>
-      <c r="C47" t="n">
-        <v>368</v>
       </c>
       <c r="D47" t="n">
         <v>373</v>
       </c>
       <c r="E47" t="n">
-        <v>368</v>
+        <v>371.8</v>
       </c>
       <c r="F47" t="n">
-        <v>838.72</v>
+        <v>468.5313</v>
       </c>
       <c r="G47" t="n">
-        <v>-56121.84838821999</v>
+        <v>-46024.69017135999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>369</v>
+        <v>371.8</v>
       </c>
       <c r="C48" t="n">
-        <v>369</v>
+        <v>371.8</v>
       </c>
       <c r="D48" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="E48" t="n">
-        <v>369</v>
+        <v>371.8</v>
       </c>
       <c r="F48" t="n">
-        <v>64.90000000000001</v>
+        <v>1316</v>
       </c>
       <c r="G48" t="n">
-        <v>-56056.94838821999</v>
+        <v>-47340.69017135999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2133,19 +2133,19 @@
         <v>371.9</v>
       </c>
       <c r="C49" t="n">
-        <v>367.2</v>
+        <v>371.8</v>
       </c>
       <c r="D49" t="n">
-        <v>372</v>
+        <v>371.9</v>
       </c>
       <c r="E49" t="n">
-        <v>367.2</v>
+        <v>371.8</v>
       </c>
       <c r="F49" t="n">
-        <v>1823.5375</v>
+        <v>571.9557</v>
       </c>
       <c r="G49" t="n">
-        <v>-57880.48588821998</v>
+        <v>-47340.69017135999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>367.2</v>
+        <v>371.8</v>
       </c>
       <c r="C50" t="n">
-        <v>373</v>
+        <v>371.8</v>
       </c>
       <c r="D50" t="n">
-        <v>373</v>
+        <v>371.8</v>
       </c>
       <c r="E50" t="n">
-        <v>367.2</v>
+        <v>371.8</v>
       </c>
       <c r="F50" t="n">
-        <v>605.1889</v>
+        <v>870</v>
       </c>
       <c r="G50" t="n">
-        <v>-57275.29698821998</v>
+        <v>-47340.69017135999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>373.9</v>
+        <v>372.8</v>
       </c>
       <c r="C51" t="n">
-        <v>368</v>
+        <v>372.8</v>
       </c>
       <c r="D51" t="n">
-        <v>373.9</v>
+        <v>372.8</v>
       </c>
       <c r="E51" t="n">
-        <v>368</v>
+        <v>372.8</v>
       </c>
       <c r="F51" t="n">
-        <v>2104.6751</v>
+        <v>15.9806</v>
       </c>
       <c r="G51" t="n">
-        <v>-59379.97208821998</v>
+        <v>-47324.70957135999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>372.8</v>
+        <v>370.5</v>
       </c>
       <c r="C52" t="n">
-        <v>372.8</v>
+        <v>370.1</v>
       </c>
       <c r="D52" t="n">
-        <v>372.8</v>
+        <v>370.5</v>
       </c>
       <c r="E52" t="n">
-        <v>372.8</v>
+        <v>370.1</v>
       </c>
       <c r="F52" t="n">
-        <v>1.4</v>
+        <v>3000</v>
       </c>
       <c r="G52" t="n">
-        <v>-59378.57208821998</v>
+        <v>-50324.70957135999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>372.9</v>
+        <v>370.2</v>
       </c>
       <c r="C53" t="n">
-        <v>372.9</v>
+        <v>370.2</v>
       </c>
       <c r="D53" t="n">
-        <v>372.9</v>
+        <v>370.2</v>
       </c>
       <c r="E53" t="n">
-        <v>372.9</v>
+        <v>370.2</v>
       </c>
       <c r="F53" t="n">
-        <v>11</v>
+        <v>10.85</v>
       </c>
       <c r="G53" t="n">
-        <v>-59367.57208821998</v>
+        <v>-50313.85957135999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>372.7</v>
+        <v>370.2</v>
       </c>
       <c r="C54" t="n">
-        <v>372.7</v>
+        <v>370</v>
       </c>
       <c r="D54" t="n">
-        <v>372.7</v>
+        <v>370.2</v>
       </c>
       <c r="E54" t="n">
-        <v>372.7</v>
+        <v>370</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>750</v>
       </c>
       <c r="G54" t="n">
-        <v>-59369.57208821998</v>
+        <v>-51063.85957135999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>372.7</v>
+        <v>370</v>
       </c>
       <c r="C55" t="n">
-        <v>373.8</v>
+        <v>370</v>
       </c>
       <c r="D55" t="n">
-        <v>373.8</v>
+        <v>370</v>
       </c>
       <c r="E55" t="n">
-        <v>372.7</v>
+        <v>370</v>
       </c>
       <c r="F55" t="n">
-        <v>4</v>
+        <v>1506.2791</v>
       </c>
       <c r="G55" t="n">
-        <v>-59365.57208821998</v>
+        <v>-51063.85957135999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>372.8</v>
+        <v>370.8</v>
       </c>
       <c r="C56" t="n">
-        <v>372.8</v>
+        <v>370.8</v>
       </c>
       <c r="D56" t="n">
-        <v>372.8</v>
+        <v>370.8</v>
       </c>
       <c r="E56" t="n">
-        <v>372.8</v>
+        <v>370.8</v>
       </c>
       <c r="F56" t="n">
-        <v>474.83</v>
+        <v>225.6964</v>
       </c>
       <c r="G56" t="n">
-        <v>-59840.40208821998</v>
+        <v>-50838.16317135999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>373.9</v>
+        <v>368</v>
       </c>
       <c r="C57" t="n">
-        <v>373.9</v>
+        <v>368</v>
       </c>
       <c r="D57" t="n">
-        <v>373.9</v>
+        <v>368</v>
       </c>
       <c r="E57" t="n">
-        <v>373.9</v>
+        <v>368</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>1989.9875</v>
       </c>
       <c r="G57" t="n">
-        <v>-59838.40208821998</v>
+        <v>-52828.15067136</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>369</v>
+        <v>370.8</v>
       </c>
       <c r="C58" t="n">
-        <v>368.1</v>
+        <v>370.8</v>
       </c>
       <c r="D58" t="n">
-        <v>369</v>
+        <v>370.8</v>
       </c>
       <c r="E58" t="n">
-        <v>368.1</v>
+        <v>370.8</v>
       </c>
       <c r="F58" t="n">
-        <v>260.4227</v>
+        <v>1.4</v>
       </c>
       <c r="G58" t="n">
-        <v>-60098.82478821999</v>
+        <v>-52826.75067135999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>369</v>
+        <v>370.8</v>
       </c>
       <c r="C59" t="n">
-        <v>369</v>
+        <v>370.8</v>
       </c>
       <c r="D59" t="n">
-        <v>369</v>
+        <v>370.8</v>
       </c>
       <c r="E59" t="n">
-        <v>369</v>
+        <v>370.8</v>
       </c>
       <c r="F59" t="n">
-        <v>5047.6444</v>
+        <v>8.7844</v>
       </c>
       <c r="G59" t="n">
-        <v>-55051.18038821999</v>
+        <v>-52826.75067135999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>372.7</v>
+        <v>369.9</v>
       </c>
       <c r="C60" t="n">
-        <v>372.7</v>
+        <v>369.9</v>
       </c>
       <c r="D60" t="n">
-        <v>372.7</v>
+        <v>369.9</v>
       </c>
       <c r="E60" t="n">
-        <v>372.7</v>
+        <v>369.9</v>
       </c>
       <c r="F60" t="n">
-        <v>289.34</v>
+        <v>7.9252</v>
       </c>
       <c r="G60" t="n">
-        <v>-54761.84038821999</v>
+        <v>-52834.67587135999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>372.7</v>
+        <v>368.8</v>
       </c>
       <c r="C61" t="n">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D61" t="n">
-        <v>372.7</v>
+        <v>368.8</v>
       </c>
       <c r="E61" t="n">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F61" t="n">
-        <v>150</v>
+        <v>1860</v>
       </c>
       <c r="G61" t="n">
-        <v>-54911.84038821999</v>
+        <v>-54694.67587135999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>373.9</v>
+        <v>366.9</v>
       </c>
       <c r="C62" t="n">
-        <v>373.9</v>
+        <v>366.7</v>
       </c>
       <c r="D62" t="n">
-        <v>373.9</v>
+        <v>366.9</v>
       </c>
       <c r="E62" t="n">
-        <v>373.9</v>
+        <v>366.7</v>
       </c>
       <c r="F62" t="n">
-        <v>344.3223</v>
+        <v>278.8728</v>
       </c>
       <c r="G62" t="n">
-        <v>-54567.51808821999</v>
+        <v>-54973.54867135999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>373.9</v>
+        <v>367.9</v>
       </c>
       <c r="C63" t="n">
-        <v>370</v>
+        <v>370.7</v>
       </c>
       <c r="D63" t="n">
-        <v>373.9</v>
+        <v>370.7</v>
       </c>
       <c r="E63" t="n">
-        <v>370</v>
+        <v>367.9</v>
       </c>
       <c r="F63" t="n">
-        <v>364.5777</v>
+        <v>223.01948314</v>
       </c>
       <c r="G63" t="n">
-        <v>-54932.09578821999</v>
+        <v>-54750.52918821999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>373.9</v>
+        <v>370.6</v>
       </c>
       <c r="C64" t="n">
-        <v>370</v>
+        <v>370.6</v>
       </c>
       <c r="D64" t="n">
-        <v>373.9</v>
+        <v>370.6</v>
       </c>
       <c r="E64" t="n">
-        <v>370</v>
+        <v>370.6</v>
       </c>
       <c r="F64" t="n">
-        <v>410.72</v>
+        <v>703.1272</v>
       </c>
       <c r="G64" t="n">
-        <v>-54932.09578821999</v>
+        <v>-55453.65638821999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>373.9</v>
+        <v>368</v>
       </c>
       <c r="C65" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D65" t="n">
-        <v>373.9</v>
+        <v>368</v>
       </c>
       <c r="E65" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F65" t="n">
-        <v>388.6</v>
+        <v>173.5217</v>
       </c>
       <c r="G65" t="n">
-        <v>-55320.69578821999</v>
+        <v>-55627.17808821999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>373.9</v>
+        <v>367.1</v>
       </c>
       <c r="C66" t="n">
-        <v>374.9</v>
+        <v>367.1</v>
       </c>
       <c r="D66" t="n">
-        <v>374.9</v>
+        <v>367.1</v>
       </c>
       <c r="E66" t="n">
-        <v>370</v>
+        <v>367.1</v>
       </c>
       <c r="F66" t="n">
-        <v>8.789999999999999</v>
+        <v>546.47</v>
       </c>
       <c r="G66" t="n">
-        <v>-55311.90578821999</v>
+        <v>-56173.64808821999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,31 +2778,35 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>374.9</v>
+        <v>367.5</v>
       </c>
       <c r="C67" t="n">
-        <v>372</v>
+        <v>367.5</v>
       </c>
       <c r="D67" t="n">
-        <v>374.9</v>
+        <v>367.5</v>
       </c>
       <c r="E67" t="n">
-        <v>372</v>
+        <v>367.5</v>
       </c>
       <c r="F67" t="n">
-        <v>532.0034000000001</v>
+        <v>1108.942</v>
       </c>
       <c r="G67" t="n">
-        <v>-55843.90918821999</v>
+        <v>-55064.70608821999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="K67" t="n">
+        <v>367.1</v>
+      </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
@@ -2814,32 +2818,40 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>372</v>
+        <v>369.9</v>
       </c>
       <c r="C68" t="n">
-        <v>373.3</v>
+        <v>369.9</v>
       </c>
       <c r="D68" t="n">
-        <v>373.3</v>
+        <v>369.9</v>
       </c>
       <c r="E68" t="n">
-        <v>368.1</v>
+        <v>369.9</v>
       </c>
       <c r="F68" t="n">
-        <v>446.57</v>
+        <v>1.4</v>
       </c>
       <c r="G68" t="n">
-        <v>-55397.33918821999</v>
+        <v>-55063.30608821999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2850,32 +2862,40 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>369</v>
+        <v>369.9</v>
       </c>
       <c r="C69" t="n">
-        <v>367.8</v>
+        <v>369.9</v>
       </c>
       <c r="D69" t="n">
-        <v>369</v>
+        <v>369.9</v>
       </c>
       <c r="E69" t="n">
-        <v>367.8</v>
+        <v>369.9</v>
       </c>
       <c r="F69" t="n">
-        <v>1906.3569</v>
+        <v>662.36</v>
       </c>
       <c r="G69" t="n">
-        <v>-57303.69608821999</v>
+        <v>-55063.30608821999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K69" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2886,32 +2906,40 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>369</v>
+        <v>370.8</v>
       </c>
       <c r="C70" t="n">
-        <v>369</v>
+        <v>367.5</v>
       </c>
       <c r="D70" t="n">
-        <v>369</v>
+        <v>370.8</v>
       </c>
       <c r="E70" t="n">
-        <v>369</v>
+        <v>367.5</v>
       </c>
       <c r="F70" t="n">
-        <v>275.6328</v>
+        <v>225.4262</v>
       </c>
       <c r="G70" t="n">
-        <v>-57028.06328821999</v>
+        <v>-55288.73228821999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K70" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2922,32 +2950,40 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>373.3</v>
+        <v>372</v>
       </c>
       <c r="C71" t="n">
-        <v>373.3</v>
+        <v>372</v>
       </c>
       <c r="D71" t="n">
-        <v>373.3</v>
+        <v>372</v>
       </c>
       <c r="E71" t="n">
-        <v>373.3</v>
+        <v>372</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G71" t="n">
-        <v>-57026.06328821999</v>
+        <v>-55277.73228821999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2958,22 +2994,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>368.9</v>
+        <v>367.5</v>
       </c>
       <c r="C72" t="n">
-        <v>368.9</v>
+        <v>367.5</v>
       </c>
       <c r="D72" t="n">
-        <v>368.9</v>
+        <v>367.5</v>
       </c>
       <c r="E72" t="n">
-        <v>368.9</v>
+        <v>367.5</v>
       </c>
       <c r="F72" t="n">
-        <v>519.0569</v>
+        <v>288.8797</v>
       </c>
       <c r="G72" t="n">
-        <v>-57545.12018822</v>
+        <v>-55566.61198821999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2982,8 +3018,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2994,22 +3036,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>368.9</v>
+        <v>372</v>
       </c>
       <c r="C73" t="n">
-        <v>368.9</v>
+        <v>372</v>
       </c>
       <c r="D73" t="n">
-        <v>368.9</v>
+        <v>372</v>
       </c>
       <c r="E73" t="n">
-        <v>368.9</v>
+        <v>372</v>
       </c>
       <c r="F73" t="n">
-        <v>1350.2171</v>
+        <v>11</v>
       </c>
       <c r="G73" t="n">
-        <v>-57545.12018822</v>
+        <v>-55555.61198821999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3018,8 +3060,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3030,22 +3078,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>368.9</v>
+        <v>372</v>
       </c>
       <c r="C74" t="n">
-        <v>373.3</v>
+        <v>373</v>
       </c>
       <c r="D74" t="n">
-        <v>373.3</v>
+        <v>373</v>
       </c>
       <c r="E74" t="n">
-        <v>368.9</v>
+        <v>372</v>
       </c>
       <c r="F74" t="n">
-        <v>1348.2086</v>
+        <v>272.4836</v>
       </c>
       <c r="G74" t="n">
-        <v>-56196.91158822</v>
+        <v>-55283.12838821999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3054,8 +3102,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3066,22 +3120,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>373.3</v>
+        <v>372</v>
       </c>
       <c r="C75" t="n">
-        <v>374.5</v>
+        <v>373</v>
       </c>
       <c r="D75" t="n">
-        <v>374.5</v>
+        <v>373</v>
       </c>
       <c r="E75" t="n">
-        <v>368.9</v>
+        <v>367.5</v>
       </c>
       <c r="F75" t="n">
-        <v>567.4668</v>
+        <v>1462.5843</v>
       </c>
       <c r="G75" t="n">
-        <v>-55629.44478822</v>
+        <v>-55283.12838821999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3090,8 +3144,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3102,22 +3162,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>369.9</v>
+        <v>373</v>
       </c>
       <c r="C76" t="n">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D76" t="n">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E76" t="n">
-        <v>369.9</v>
+        <v>368</v>
       </c>
       <c r="F76" t="n">
-        <v>291.12</v>
+        <v>838.72</v>
       </c>
       <c r="G76" t="n">
-        <v>-55920.56478822</v>
+        <v>-56121.84838821999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3126,8 +3186,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3138,22 +3204,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>374.4</v>
+        <v>369</v>
       </c>
       <c r="C77" t="n">
-        <v>374.4</v>
+        <v>369</v>
       </c>
       <c r="D77" t="n">
-        <v>374.4</v>
+        <v>369</v>
       </c>
       <c r="E77" t="n">
-        <v>374.4</v>
+        <v>369</v>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="G77" t="n">
-        <v>-55918.56478822</v>
+        <v>-56056.94838821999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3162,8 +3228,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3174,22 +3246,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>374.4</v>
+        <v>371.9</v>
       </c>
       <c r="C78" t="n">
-        <v>369.9</v>
+        <v>367.2</v>
       </c>
       <c r="D78" t="n">
-        <v>374.4</v>
+        <v>372</v>
       </c>
       <c r="E78" t="n">
-        <v>369.9</v>
+        <v>367.2</v>
       </c>
       <c r="F78" t="n">
-        <v>178.56</v>
+        <v>1823.5375</v>
       </c>
       <c r="G78" t="n">
-        <v>-56097.12478822</v>
+        <v>-57880.48588821998</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3198,8 +3270,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3210,22 +3288,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>368.9</v>
+        <v>367.2</v>
       </c>
       <c r="C79" t="n">
-        <v>368.9</v>
+        <v>373</v>
       </c>
       <c r="D79" t="n">
-        <v>368.9</v>
+        <v>373</v>
       </c>
       <c r="E79" t="n">
-        <v>368.9</v>
+        <v>367.2</v>
       </c>
       <c r="F79" t="n">
-        <v>4.65</v>
+        <v>605.1889</v>
       </c>
       <c r="G79" t="n">
-        <v>-56101.77478822</v>
+        <v>-57275.29698821998</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3234,8 +3312,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3246,22 +3330,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>374.5</v>
+        <v>373.9</v>
       </c>
       <c r="C80" t="n">
-        <v>374.5</v>
+        <v>368</v>
       </c>
       <c r="D80" t="n">
-        <v>374.5</v>
+        <v>373.9</v>
       </c>
       <c r="E80" t="n">
-        <v>374.5</v>
+        <v>368</v>
       </c>
       <c r="F80" t="n">
-        <v>180.0504</v>
+        <v>2104.6751</v>
       </c>
       <c r="G80" t="n">
-        <v>-55921.72438822</v>
+        <v>-59379.97208821998</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3270,8 +3354,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3282,22 +3372,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>375.5</v>
+        <v>372.8</v>
       </c>
       <c r="C81" t="n">
-        <v>371</v>
+        <v>372.8</v>
       </c>
       <c r="D81" t="n">
-        <v>375.5</v>
+        <v>372.8</v>
       </c>
       <c r="E81" t="n">
-        <v>368.9</v>
+        <v>372.8</v>
       </c>
       <c r="F81" t="n">
-        <v>371.34</v>
+        <v>1.4</v>
       </c>
       <c r="G81" t="n">
-        <v>-56293.06438821999</v>
+        <v>-59378.57208821998</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3306,8 +3396,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3318,22 +3414,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>374.6</v>
+        <v>372.9</v>
       </c>
       <c r="C82" t="n">
-        <v>374.6</v>
+        <v>372.9</v>
       </c>
       <c r="D82" t="n">
-        <v>374.6</v>
+        <v>372.9</v>
       </c>
       <c r="E82" t="n">
-        <v>374.6</v>
+        <v>372.9</v>
       </c>
       <c r="F82" t="n">
-        <v>162.4521</v>
+        <v>11</v>
       </c>
       <c r="G82" t="n">
-        <v>-56130.61228821999</v>
+        <v>-59367.57208821998</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3342,8 +3438,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3354,22 +3456,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>374.6</v>
+        <v>372.7</v>
       </c>
       <c r="C83" t="n">
-        <v>375.7</v>
+        <v>372.7</v>
       </c>
       <c r="D83" t="n">
-        <v>375.7</v>
+        <v>372.7</v>
       </c>
       <c r="E83" t="n">
-        <v>374.6</v>
+        <v>372.7</v>
       </c>
       <c r="F83" t="n">
-        <v>8.4879</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>-56122.12438821999</v>
+        <v>-59369.57208821998</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3378,8 +3480,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3390,22 +3498,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>374.9</v>
+        <v>372.7</v>
       </c>
       <c r="C84" t="n">
-        <v>374.9</v>
+        <v>373.8</v>
       </c>
       <c r="D84" t="n">
-        <v>374.9</v>
+        <v>373.8</v>
       </c>
       <c r="E84" t="n">
-        <v>374.9</v>
+        <v>372.7</v>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G84" t="n">
-        <v>-56124.12438821999</v>
+        <v>-59365.57208821998</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3414,8 +3522,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3426,22 +3540,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>374.9</v>
+        <v>372.8</v>
       </c>
       <c r="C85" t="n">
-        <v>374.9</v>
+        <v>372.8</v>
       </c>
       <c r="D85" t="n">
-        <v>374.9</v>
+        <v>372.8</v>
       </c>
       <c r="E85" t="n">
-        <v>374.9</v>
+        <v>372.8</v>
       </c>
       <c r="F85" t="n">
-        <v>308.4148</v>
+        <v>474.83</v>
       </c>
       <c r="G85" t="n">
-        <v>-56124.12438821999</v>
+        <v>-59840.40208821998</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3450,8 +3564,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3462,22 +3582,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>375.9</v>
+        <v>373.9</v>
       </c>
       <c r="C86" t="n">
-        <v>376</v>
+        <v>373.9</v>
       </c>
       <c r="D86" t="n">
-        <v>376</v>
+        <v>373.9</v>
       </c>
       <c r="E86" t="n">
-        <v>375.9</v>
+        <v>373.9</v>
       </c>
       <c r="F86" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="G86" t="n">
-        <v>-56120.72438821999</v>
+        <v>-59838.40208821998</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3486,8 +3606,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3498,22 +3624,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>375.9</v>
+        <v>369</v>
       </c>
       <c r="C87" t="n">
-        <v>375.9</v>
+        <v>368.1</v>
       </c>
       <c r="D87" t="n">
-        <v>375.9</v>
+        <v>369</v>
       </c>
       <c r="E87" t="n">
-        <v>373</v>
+        <v>368.1</v>
       </c>
       <c r="F87" t="n">
-        <v>52</v>
+        <v>260.4227</v>
       </c>
       <c r="G87" t="n">
-        <v>-56172.72438821999</v>
+        <v>-60098.82478821999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3522,8 +3648,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3534,22 +3666,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>373.2</v>
+        <v>369</v>
       </c>
       <c r="C88" t="n">
-        <v>372.2</v>
+        <v>369</v>
       </c>
       <c r="D88" t="n">
-        <v>373.2</v>
+        <v>369</v>
       </c>
       <c r="E88" t="n">
-        <v>371.2</v>
+        <v>369</v>
       </c>
       <c r="F88" t="n">
-        <v>269.24</v>
+        <v>5047.6444</v>
       </c>
       <c r="G88" t="n">
-        <v>-56441.96438821999</v>
+        <v>-55051.18038821999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3558,8 +3690,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3570,32 +3708,40 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>376.9</v>
+        <v>372.7</v>
       </c>
       <c r="C89" t="n">
-        <v>373.2</v>
+        <v>372.7</v>
       </c>
       <c r="D89" t="n">
-        <v>376.9</v>
+        <v>372.7</v>
       </c>
       <c r="E89" t="n">
-        <v>373.2</v>
+        <v>372.7</v>
       </c>
       <c r="F89" t="n">
-        <v>746</v>
+        <v>289.34</v>
       </c>
       <c r="G89" t="n">
-        <v>-55695.96438821999</v>
+        <v>-54761.84038821999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>369</v>
+      </c>
+      <c r="K89" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3606,32 +3752,40 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>377</v>
+        <v>372.7</v>
       </c>
       <c r="C90" t="n">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D90" t="n">
-        <v>377</v>
+        <v>372.7</v>
       </c>
       <c r="E90" t="n">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="G90" t="n">
-        <v>-55693.96438821999</v>
+        <v>-54911.84038821999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>372.7</v>
+      </c>
+      <c r="K90" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3642,32 +3796,40 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>377</v>
+        <v>373.9</v>
       </c>
       <c r="C91" t="n">
-        <v>371.4</v>
+        <v>373.9</v>
       </c>
       <c r="D91" t="n">
-        <v>377</v>
+        <v>373.9</v>
       </c>
       <c r="E91" t="n">
-        <v>371.4</v>
+        <v>373.9</v>
       </c>
       <c r="F91" t="n">
-        <v>319.87</v>
+        <v>344.3223</v>
       </c>
       <c r="G91" t="n">
-        <v>-56013.83438821999</v>
+        <v>-54567.51808821999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>370</v>
+      </c>
+      <c r="K91" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3678,32 +3840,40 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>378</v>
+        <v>373.9</v>
       </c>
       <c r="C92" t="n">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D92" t="n">
-        <v>378</v>
+        <v>373.9</v>
       </c>
       <c r="E92" t="n">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F92" t="n">
-        <v>2</v>
+        <v>364.5777</v>
       </c>
       <c r="G92" t="n">
-        <v>-56011.83438821999</v>
+        <v>-54932.09578821999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>373.9</v>
+      </c>
+      <c r="K92" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3714,32 +3884,40 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>378</v>
+        <v>373.9</v>
       </c>
       <c r="C93" t="n">
-        <v>369.6</v>
+        <v>370</v>
       </c>
       <c r="D93" t="n">
-        <v>378</v>
+        <v>373.9</v>
       </c>
       <c r="E93" t="n">
-        <v>369.6</v>
+        <v>370</v>
       </c>
       <c r="F93" t="n">
-        <v>969.1900000000001</v>
+        <v>410.72</v>
       </c>
       <c r="G93" t="n">
-        <v>-56981.02438821999</v>
+        <v>-54932.09578821999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>370</v>
+      </c>
+      <c r="K93" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3750,22 +3928,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>376.6</v>
+        <v>373.9</v>
       </c>
       <c r="C94" t="n">
-        <v>376.6</v>
+        <v>369</v>
       </c>
       <c r="D94" t="n">
-        <v>376.6</v>
+        <v>373.9</v>
       </c>
       <c r="E94" t="n">
-        <v>376.6</v>
+        <v>369</v>
       </c>
       <c r="F94" t="n">
-        <v>98.4376</v>
+        <v>388.6</v>
       </c>
       <c r="G94" t="n">
-        <v>-56882.58678822</v>
+        <v>-55320.69578821999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3774,8 +3952,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3786,32 +3970,40 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>376.5</v>
+        <v>373.9</v>
       </c>
       <c r="C95" t="n">
-        <v>372.2</v>
+        <v>374.9</v>
       </c>
       <c r="D95" t="n">
-        <v>376.5</v>
+        <v>374.9</v>
       </c>
       <c r="E95" t="n">
-        <v>372.2</v>
+        <v>370</v>
       </c>
       <c r="F95" t="n">
-        <v>177.53</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="G95" t="n">
-        <v>-57060.11678822</v>
+        <v>-55311.90578821999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>369</v>
+      </c>
+      <c r="K95" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3822,32 +4014,40 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>378</v>
+        <v>374.9</v>
       </c>
       <c r="C96" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D96" t="n">
-        <v>378</v>
+        <v>374.9</v>
       </c>
       <c r="E96" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F96" t="n">
-        <v>88.51090000000001</v>
+        <v>532.0034000000001</v>
       </c>
       <c r="G96" t="n">
-        <v>-56971.60588821999</v>
+        <v>-55843.90918821999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>374.9</v>
+      </c>
+      <c r="K96" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3858,32 +4058,40 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C97" t="n">
-        <v>371.3</v>
+        <v>373.3</v>
       </c>
       <c r="D97" t="n">
-        <v>378</v>
+        <v>373.3</v>
       </c>
       <c r="E97" t="n">
-        <v>371.3</v>
+        <v>368.1</v>
       </c>
       <c r="F97" t="n">
-        <v>134.0191</v>
+        <v>446.57</v>
       </c>
       <c r="G97" t="n">
-        <v>-57105.62498821999</v>
+        <v>-55397.33918821999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>372</v>
+      </c>
+      <c r="K97" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3894,32 +4102,40 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>377.8</v>
+        <v>369</v>
       </c>
       <c r="C98" t="n">
-        <v>377.8</v>
+        <v>367.8</v>
       </c>
       <c r="D98" t="n">
-        <v>377.8</v>
+        <v>369</v>
       </c>
       <c r="E98" t="n">
-        <v>377.8</v>
+        <v>367.8</v>
       </c>
       <c r="F98" t="n">
-        <v>79.9234</v>
+        <v>1906.3569</v>
       </c>
       <c r="G98" t="n">
-        <v>-57025.70158821999</v>
+        <v>-57303.69608821999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>373.3</v>
+      </c>
+      <c r="K98" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3930,32 +4146,40 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>377.8</v>
+        <v>369</v>
       </c>
       <c r="C99" t="n">
-        <v>371.5</v>
+        <v>369</v>
       </c>
       <c r="D99" t="n">
-        <v>377.8</v>
+        <v>369</v>
       </c>
       <c r="E99" t="n">
-        <v>371.5</v>
+        <v>369</v>
       </c>
       <c r="F99" t="n">
-        <v>175.8766</v>
+        <v>275.6328</v>
       </c>
       <c r="G99" t="n">
-        <v>-57201.57818822</v>
+        <v>-57028.06328821999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>367.8</v>
+      </c>
+      <c r="K99" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3966,32 +4190,40 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>371.9</v>
+        <v>373.3</v>
       </c>
       <c r="C100" t="n">
-        <v>371.4</v>
+        <v>373.3</v>
       </c>
       <c r="D100" t="n">
-        <v>376.8</v>
+        <v>373.3</v>
       </c>
       <c r="E100" t="n">
-        <v>370.4</v>
+        <v>373.3</v>
       </c>
       <c r="F100" t="n">
-        <v>1761.071</v>
+        <v>2</v>
       </c>
       <c r="G100" t="n">
-        <v>-58962.64918821999</v>
+        <v>-57026.06328821999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>369</v>
+      </c>
+      <c r="K100" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4002,32 +4234,40 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>371.4</v>
+        <v>368.9</v>
       </c>
       <c r="C101" t="n">
-        <v>370.4</v>
+        <v>368.9</v>
       </c>
       <c r="D101" t="n">
-        <v>371.4</v>
+        <v>368.9</v>
       </c>
       <c r="E101" t="n">
-        <v>370.4</v>
+        <v>368.9</v>
       </c>
       <c r="F101" t="n">
-        <v>447.09</v>
+        <v>519.0569</v>
       </c>
       <c r="G101" t="n">
-        <v>-59409.73918821999</v>
+        <v>-57545.12018822</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>373.3</v>
+      </c>
+      <c r="K101" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4038,32 +4278,40 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>375.6</v>
+        <v>368.9</v>
       </c>
       <c r="C102" t="n">
-        <v>375.6</v>
+        <v>368.9</v>
       </c>
       <c r="D102" t="n">
-        <v>375.6</v>
+        <v>368.9</v>
       </c>
       <c r="E102" t="n">
-        <v>375.6</v>
+        <v>368.9</v>
       </c>
       <c r="F102" t="n">
-        <v>272.06</v>
+        <v>1350.2171</v>
       </c>
       <c r="G102" t="n">
-        <v>-59137.67918821999</v>
+        <v>-57545.12018822</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>368.9</v>
+      </c>
+      <c r="K102" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4074,32 +4322,40 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>376.7</v>
+        <v>368.9</v>
       </c>
       <c r="C103" t="n">
-        <v>376.7</v>
+        <v>373.3</v>
       </c>
       <c r="D103" t="n">
-        <v>376.7</v>
+        <v>373.3</v>
       </c>
       <c r="E103" t="n">
-        <v>376.7</v>
+        <v>368.9</v>
       </c>
       <c r="F103" t="n">
-        <v>1.4</v>
+        <v>1348.2086</v>
       </c>
       <c r="G103" t="n">
-        <v>-59136.27918821999</v>
+        <v>-56196.91158822</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>368.9</v>
+      </c>
+      <c r="K103" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4110,32 +4366,40 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>376.7</v>
+        <v>373.3</v>
       </c>
       <c r="C104" t="n">
-        <v>372.4</v>
+        <v>374.5</v>
       </c>
       <c r="D104" t="n">
-        <v>376.7</v>
+        <v>374.5</v>
       </c>
       <c r="E104" t="n">
-        <v>372.4</v>
+        <v>368.9</v>
       </c>
       <c r="F104" t="n">
-        <v>465.9308</v>
+        <v>567.4668</v>
       </c>
       <c r="G104" t="n">
-        <v>-59602.20998821999</v>
+        <v>-55629.44478822</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>373.3</v>
+      </c>
+      <c r="K104" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4146,32 +4410,40 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>371.4</v>
+        <v>369.9</v>
       </c>
       <c r="C105" t="n">
-        <v>371.4</v>
+        <v>370</v>
       </c>
       <c r="D105" t="n">
-        <v>371.4</v>
+        <v>371</v>
       </c>
       <c r="E105" t="n">
-        <v>371.4</v>
+        <v>369.9</v>
       </c>
       <c r="F105" t="n">
-        <v>508.26</v>
+        <v>291.12</v>
       </c>
       <c r="G105" t="n">
-        <v>-60110.46998821999</v>
+        <v>-55920.56478822</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>374.5</v>
+      </c>
+      <c r="K105" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4182,32 +4454,40 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>372.4</v>
+        <v>374.4</v>
       </c>
       <c r="C106" t="n">
-        <v>372.4</v>
+        <v>374.4</v>
       </c>
       <c r="D106" t="n">
-        <v>372.4</v>
+        <v>374.4</v>
       </c>
       <c r="E106" t="n">
-        <v>372.4</v>
+        <v>374.4</v>
       </c>
       <c r="F106" t="n">
-        <v>203.69</v>
+        <v>2</v>
       </c>
       <c r="G106" t="n">
-        <v>-59906.77998821999</v>
+        <v>-55918.56478822</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>370</v>
+      </c>
+      <c r="K106" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4218,32 +4498,40 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>372.4</v>
+        <v>374.4</v>
       </c>
       <c r="C107" t="n">
-        <v>369.5</v>
+        <v>369.9</v>
       </c>
       <c r="D107" t="n">
-        <v>372.4</v>
+        <v>374.4</v>
       </c>
       <c r="E107" t="n">
-        <v>369.5</v>
+        <v>369.9</v>
       </c>
       <c r="F107" t="n">
-        <v>2480</v>
+        <v>178.56</v>
       </c>
       <c r="G107" t="n">
-        <v>-62386.77998821999</v>
+        <v>-56097.12478822</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>374.4</v>
+      </c>
+      <c r="K107" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4254,32 +4542,40 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>375.5</v>
+        <v>368.9</v>
       </c>
       <c r="C108" t="n">
-        <v>375.5</v>
+        <v>368.9</v>
       </c>
       <c r="D108" t="n">
-        <v>375.5</v>
+        <v>368.9</v>
       </c>
       <c r="E108" t="n">
-        <v>375.5</v>
+        <v>368.9</v>
       </c>
       <c r="F108" t="n">
-        <v>1.4</v>
+        <v>4.65</v>
       </c>
       <c r="G108" t="n">
-        <v>-62385.37998821999</v>
+        <v>-56101.77478822</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K108" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4290,32 +4586,40 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>375.6</v>
+        <v>374.5</v>
       </c>
       <c r="C109" t="n">
-        <v>375.5</v>
+        <v>374.5</v>
       </c>
       <c r="D109" t="n">
-        <v>375.6</v>
+        <v>374.5</v>
       </c>
       <c r="E109" t="n">
-        <v>375.5</v>
+        <v>374.5</v>
       </c>
       <c r="F109" t="n">
-        <v>2.8</v>
+        <v>180.0504</v>
       </c>
       <c r="G109" t="n">
-        <v>-62385.37998821999</v>
+        <v>-55921.72438822</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>368.9</v>
+      </c>
+      <c r="K109" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4326,22 +4630,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>376.7</v>
+        <v>375.5</v>
       </c>
       <c r="C110" t="n">
-        <v>376.7</v>
+        <v>371</v>
       </c>
       <c r="D110" t="n">
-        <v>376.7</v>
+        <v>375.5</v>
       </c>
       <c r="E110" t="n">
-        <v>376.7</v>
+        <v>368.9</v>
       </c>
       <c r="F110" t="n">
-        <v>1.4</v>
+        <v>371.34</v>
       </c>
       <c r="G110" t="n">
-        <v>-62383.97998821999</v>
+        <v>-56293.06438821999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4350,8 +4654,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4362,32 +4672,40 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>376.7</v>
+        <v>374.6</v>
       </c>
       <c r="C111" t="n">
-        <v>369.5</v>
+        <v>374.6</v>
       </c>
       <c r="D111" t="n">
-        <v>376.7</v>
+        <v>374.6</v>
       </c>
       <c r="E111" t="n">
-        <v>369.5</v>
+        <v>374.6</v>
       </c>
       <c r="F111" t="n">
-        <v>456.93</v>
+        <v>162.4521</v>
       </c>
       <c r="G111" t="n">
-        <v>-62840.90998821999</v>
+        <v>-56130.61228821999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>371</v>
+      </c>
+      <c r="K111" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4398,22 +4716,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>378</v>
+        <v>374.6</v>
       </c>
       <c r="C112" t="n">
-        <v>378</v>
+        <v>375.7</v>
       </c>
       <c r="D112" t="n">
-        <v>378</v>
+        <v>375.7</v>
       </c>
       <c r="E112" t="n">
-        <v>378</v>
+        <v>374.6</v>
       </c>
       <c r="F112" t="n">
-        <v>1.4</v>
+        <v>8.4879</v>
       </c>
       <c r="G112" t="n">
-        <v>-62839.50998821999</v>
+        <v>-56122.12438821999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4422,8 +4740,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4434,22 +4758,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>369.5</v>
+        <v>374.9</v>
       </c>
       <c r="C113" t="n">
-        <v>369.5</v>
+        <v>374.9</v>
       </c>
       <c r="D113" t="n">
-        <v>369.5</v>
+        <v>374.9</v>
       </c>
       <c r="E113" t="n">
-        <v>369.5</v>
+        <v>374.9</v>
       </c>
       <c r="F113" t="n">
-        <v>499.25</v>
+        <v>2</v>
       </c>
       <c r="G113" t="n">
-        <v>-63338.75998821999</v>
+        <v>-56124.12438821999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4458,8 +4782,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4470,32 +4800,40 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>369.5</v>
+        <v>374.9</v>
       </c>
       <c r="C114" t="n">
-        <v>368.1</v>
+        <v>374.9</v>
       </c>
       <c r="D114" t="n">
-        <v>369.5</v>
+        <v>374.9</v>
       </c>
       <c r="E114" t="n">
-        <v>368.1</v>
+        <v>374.9</v>
       </c>
       <c r="F114" t="n">
-        <v>3207.81</v>
+        <v>308.4148</v>
       </c>
       <c r="G114" t="n">
-        <v>-66546.56998821998</v>
+        <v>-56124.12438821999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>374.9</v>
+      </c>
+      <c r="K114" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4506,22 +4844,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>368.1</v>
+        <v>375.9</v>
       </c>
       <c r="C115" t="n">
-        <v>368.1</v>
+        <v>376</v>
       </c>
       <c r="D115" t="n">
-        <v>368.1</v>
+        <v>376</v>
       </c>
       <c r="E115" t="n">
-        <v>368.1</v>
+        <v>375.9</v>
       </c>
       <c r="F115" t="n">
-        <v>520</v>
+        <v>3.4</v>
       </c>
       <c r="G115" t="n">
-        <v>-66546.56998821998</v>
+        <v>-56120.72438821999</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4530,8 +4868,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4542,22 +4886,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>373</v>
+        <v>375.9</v>
       </c>
       <c r="C116" t="n">
-        <v>373</v>
+        <v>375.9</v>
       </c>
       <c r="D116" t="n">
-        <v>373</v>
+        <v>375.9</v>
       </c>
       <c r="E116" t="n">
         <v>373</v>
       </c>
       <c r="F116" t="n">
-        <v>1.4</v>
+        <v>52</v>
       </c>
       <c r="G116" t="n">
-        <v>-66545.16998821999</v>
+        <v>-56172.72438821999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4566,8 +4910,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4578,22 +4928,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>371.6</v>
+        <v>373.2</v>
       </c>
       <c r="C117" t="n">
-        <v>369.1</v>
+        <v>372.2</v>
       </c>
       <c r="D117" t="n">
-        <v>371.6</v>
+        <v>373.2</v>
       </c>
       <c r="E117" t="n">
-        <v>369.1</v>
+        <v>371.2</v>
       </c>
       <c r="F117" t="n">
-        <v>397.045</v>
+        <v>269.24</v>
       </c>
       <c r="G117" t="n">
-        <v>-66942.21498821999</v>
+        <v>-56441.96438821999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4602,8 +4952,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4614,36 +4970,38 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>371.7</v>
+        <v>376.9</v>
       </c>
       <c r="C118" t="n">
-        <v>371.7</v>
+        <v>373.2</v>
       </c>
       <c r="D118" t="n">
-        <v>371.7</v>
+        <v>376.9</v>
       </c>
       <c r="E118" t="n">
-        <v>371.7</v>
+        <v>373.2</v>
       </c>
       <c r="F118" t="n">
-        <v>10</v>
+        <v>746</v>
       </c>
       <c r="G118" t="n">
-        <v>-66932.21498821999</v>
+        <v>-55695.96438821999</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>369.1</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>369.1</v>
-      </c>
-      <c r="L118" t="inlineStr"/>
+        <v>367.1</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4654,22 +5012,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>369.1</v>
+        <v>377</v>
       </c>
       <c r="C119" t="n">
-        <v>369.1</v>
+        <v>377</v>
       </c>
       <c r="D119" t="n">
-        <v>369.1</v>
+        <v>377</v>
       </c>
       <c r="E119" t="n">
-        <v>369.1</v>
+        <v>377</v>
       </c>
       <c r="F119" t="n">
-        <v>83.87</v>
+        <v>2</v>
       </c>
       <c r="G119" t="n">
-        <v>-67016.08498821998</v>
+        <v>-55693.96438821999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4679,11 +5037,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>369.1</v>
+        <v>367.1</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M119" t="n">
@@ -4696,38 +5054,36 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>369.1</v>
+        <v>377</v>
       </c>
       <c r="C120" t="n">
-        <v>369.1</v>
+        <v>371.4</v>
       </c>
       <c r="D120" t="n">
-        <v>369.1</v>
+        <v>377</v>
       </c>
       <c r="E120" t="n">
-        <v>369.1</v>
+        <v>371.4</v>
       </c>
       <c r="F120" t="n">
-        <v>0.7914</v>
+        <v>319.87</v>
       </c>
       <c r="G120" t="n">
-        <v>-67016.08498821998</v>
+        <v>-56013.83438821999</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>369.1</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>369.1</v>
+        <v>367.1</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M120" t="n">
@@ -4740,22 +5096,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>368.2</v>
+        <v>378</v>
       </c>
       <c r="C121" t="n">
-        <v>368.1</v>
+        <v>378</v>
       </c>
       <c r="D121" t="n">
-        <v>368.2</v>
+        <v>378</v>
       </c>
       <c r="E121" t="n">
-        <v>368.1</v>
+        <v>378</v>
       </c>
       <c r="F121" t="n">
-        <v>3350.7559</v>
+        <v>2</v>
       </c>
       <c r="G121" t="n">
-        <v>-70366.84088821999</v>
+        <v>-56011.83438821999</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4764,8 +5120,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4776,22 +5138,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>368.3</v>
+        <v>378</v>
       </c>
       <c r="C122" t="n">
-        <v>368</v>
+        <v>369.6</v>
       </c>
       <c r="D122" t="n">
-        <v>368.3</v>
+        <v>378</v>
       </c>
       <c r="E122" t="n">
-        <v>368</v>
+        <v>369.6</v>
       </c>
       <c r="F122" t="n">
-        <v>3240</v>
+        <v>969.1900000000001</v>
       </c>
       <c r="G122" t="n">
-        <v>-73606.84088821999</v>
+        <v>-56981.02438821999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4800,8 +5162,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4812,36 +5180,38 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>371.7</v>
+        <v>376.6</v>
       </c>
       <c r="C123" t="n">
-        <v>371.7</v>
+        <v>376.6</v>
       </c>
       <c r="D123" t="n">
-        <v>371.7</v>
+        <v>376.6</v>
       </c>
       <c r="E123" t="n">
-        <v>371.7</v>
+        <v>376.6</v>
       </c>
       <c r="F123" t="n">
-        <v>3</v>
+        <v>98.4376</v>
       </c>
       <c r="G123" t="n">
-        <v>-73603.84088821999</v>
+        <v>-56882.58678822</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>368</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>368</v>
-      </c>
-      <c r="L123" t="inlineStr"/>
+        <v>367.1</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4852,38 +5222,36 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>368.1</v>
+        <v>376.5</v>
       </c>
       <c r="C124" t="n">
-        <v>368</v>
+        <v>372.2</v>
       </c>
       <c r="D124" t="n">
-        <v>368.1</v>
+        <v>376.5</v>
       </c>
       <c r="E124" t="n">
-        <v>368</v>
+        <v>372.2</v>
       </c>
       <c r="F124" t="n">
-        <v>2960</v>
+        <v>177.53</v>
       </c>
       <c r="G124" t="n">
-        <v>-76563.84088821999</v>
+        <v>-57060.11678822</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>371.7</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>368</v>
+        <v>367.1</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M124" t="n">
@@ -4896,22 +5264,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="C125" t="n">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="D125" t="n">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="E125" t="n">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="F125" t="n">
-        <v>535.1866</v>
+        <v>88.51090000000001</v>
       </c>
       <c r="G125" t="n">
-        <v>-76563.84088821999</v>
+        <v>-56971.60588821999</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4921,7 +5289,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>368</v>
+        <v>367.1</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -4938,34 +5306,32 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="C126" t="n">
-        <v>368</v>
+        <v>371.3</v>
       </c>
       <c r="D126" t="n">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="E126" t="n">
-        <v>368</v>
+        <v>371.3</v>
       </c>
       <c r="F126" t="n">
-        <v>5000</v>
+        <v>134.0191</v>
       </c>
       <c r="G126" t="n">
-        <v>-76563.84088821999</v>
+        <v>-57105.62498821999</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>368</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>368</v>
+        <v>367.1</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -4982,22 +5348,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>370.9</v>
+        <v>377.8</v>
       </c>
       <c r="C127" t="n">
-        <v>370.9</v>
+        <v>377.8</v>
       </c>
       <c r="D127" t="n">
-        <v>370.9</v>
+        <v>377.8</v>
       </c>
       <c r="E127" t="n">
-        <v>370.9</v>
+        <v>377.8</v>
       </c>
       <c r="F127" t="n">
-        <v>1.4</v>
+        <v>79.9234</v>
       </c>
       <c r="G127" t="n">
-        <v>-76562.44088821999</v>
+        <v>-57025.70158821999</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5007,7 +5373,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>368</v>
+        <v>367.1</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5024,34 +5390,32 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>368</v>
+        <v>377.8</v>
       </c>
       <c r="C128" t="n">
-        <v>367.3</v>
+        <v>371.5</v>
       </c>
       <c r="D128" t="n">
-        <v>368</v>
+        <v>377.8</v>
       </c>
       <c r="E128" t="n">
-        <v>367.3</v>
+        <v>371.5</v>
       </c>
       <c r="F128" t="n">
-        <v>14000</v>
+        <v>175.8766</v>
       </c>
       <c r="G128" t="n">
-        <v>-90562.44088821999</v>
+        <v>-57201.57818822</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>370.9</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>368</v>
+        <v>367.1</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5068,22 +5432,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>367.4</v>
+        <v>371.9</v>
       </c>
       <c r="C129" t="n">
-        <v>367.4</v>
+        <v>371.4</v>
       </c>
       <c r="D129" t="n">
-        <v>367.4</v>
+        <v>376.8</v>
       </c>
       <c r="E129" t="n">
-        <v>367.4</v>
+        <v>370.4</v>
       </c>
       <c r="F129" t="n">
-        <v>211.4224</v>
+        <v>1761.071</v>
       </c>
       <c r="G129" t="n">
-        <v>-90351.01848822</v>
+        <v>-58962.64918821999</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5093,7 +5457,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>368</v>
+        <v>367.1</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5110,22 +5474,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>370.9</v>
+        <v>371.4</v>
       </c>
       <c r="C130" t="n">
-        <v>370.9</v>
+        <v>370.4</v>
       </c>
       <c r="D130" t="n">
-        <v>370.9</v>
+        <v>371.4</v>
       </c>
       <c r="E130" t="n">
-        <v>370.9</v>
+        <v>370.4</v>
       </c>
       <c r="F130" t="n">
-        <v>1.4</v>
+        <v>447.09</v>
       </c>
       <c r="G130" t="n">
-        <v>-90349.61848822</v>
+        <v>-59409.73918821999</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5135,7 +5499,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>368</v>
+        <v>367.1</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5152,22 +5516,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>370.9</v>
+        <v>375.6</v>
       </c>
       <c r="C131" t="n">
-        <v>370.9</v>
+        <v>375.6</v>
       </c>
       <c r="D131" t="n">
-        <v>370.9</v>
+        <v>375.6</v>
       </c>
       <c r="E131" t="n">
-        <v>370.9</v>
+        <v>375.6</v>
       </c>
       <c r="F131" t="n">
-        <v>12</v>
+        <v>272.06</v>
       </c>
       <c r="G131" t="n">
-        <v>-90349.61848822</v>
+        <v>-59137.67918821999</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5177,7 +5541,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>368</v>
+        <v>367.1</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5194,22 +5558,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>370.9</v>
+        <v>376.7</v>
       </c>
       <c r="C132" t="n">
-        <v>370.9</v>
+        <v>376.7</v>
       </c>
       <c r="D132" t="n">
-        <v>370.9</v>
+        <v>376.7</v>
       </c>
       <c r="E132" t="n">
-        <v>370.9</v>
+        <v>376.7</v>
       </c>
       <c r="F132" t="n">
-        <v>0.383</v>
+        <v>1.4</v>
       </c>
       <c r="G132" t="n">
-        <v>-90349.61848822</v>
+        <v>-59136.27918821999</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5219,7 +5583,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>368</v>
+        <v>367.1</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5236,22 +5600,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>370.9</v>
+        <v>376.7</v>
       </c>
       <c r="C133" t="n">
-        <v>372.8</v>
+        <v>372.4</v>
       </c>
       <c r="D133" t="n">
-        <v>372.8</v>
+        <v>376.7</v>
       </c>
       <c r="E133" t="n">
-        <v>367</v>
+        <v>372.4</v>
       </c>
       <c r="F133" t="n">
-        <v>7463.8192</v>
+        <v>465.9308</v>
       </c>
       <c r="G133" t="n">
-        <v>-82885.79928822001</v>
+        <v>-59602.20998821999</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5261,7 +5625,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>368</v>
+        <v>367.1</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5278,22 +5642,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>368.9</v>
+        <v>371.4</v>
       </c>
       <c r="C134" t="n">
-        <v>372.8</v>
+        <v>371.4</v>
       </c>
       <c r="D134" t="n">
-        <v>372.8</v>
+        <v>371.4</v>
       </c>
       <c r="E134" t="n">
-        <v>366.7</v>
+        <v>371.4</v>
       </c>
       <c r="F134" t="n">
-        <v>7174.8893</v>
+        <v>508.26</v>
       </c>
       <c r="G134" t="n">
-        <v>-82885.79928822001</v>
+        <v>-60110.46998821999</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5303,7 +5667,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>368</v>
+        <v>367.1</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5320,22 +5684,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>372.8</v>
+        <v>372.4</v>
       </c>
       <c r="C135" t="n">
-        <v>373.6</v>
+        <v>372.4</v>
       </c>
       <c r="D135" t="n">
-        <v>374.6</v>
+        <v>372.4</v>
       </c>
       <c r="E135" t="n">
-        <v>372.8</v>
+        <v>372.4</v>
       </c>
       <c r="F135" t="n">
-        <v>1712</v>
+        <v>203.69</v>
       </c>
       <c r="G135" t="n">
-        <v>-81173.79928822001</v>
+        <v>-59906.77998821999</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5345,7 +5709,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>368</v>
+        <v>367.1</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5362,22 +5726,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>371.3</v>
+        <v>372.4</v>
       </c>
       <c r="C136" t="n">
-        <v>371.3</v>
+        <v>369.5</v>
       </c>
       <c r="D136" t="n">
-        <v>371.3</v>
+        <v>372.4</v>
       </c>
       <c r="E136" t="n">
-        <v>371.3</v>
+        <v>369.5</v>
       </c>
       <c r="F136" t="n">
-        <v>100.03</v>
+        <v>2480</v>
       </c>
       <c r="G136" t="n">
-        <v>-81273.82928822</v>
+        <v>-62386.77998821999</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5387,17 +5751,1235 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>375.5</v>
+      </c>
+      <c r="C137" t="n">
+        <v>375.5</v>
+      </c>
+      <c r="D137" t="n">
+        <v>375.5</v>
+      </c>
+      <c r="E137" t="n">
+        <v>375.5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-62385.37998821999</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>375.6</v>
+      </c>
+      <c r="C138" t="n">
+        <v>375.5</v>
+      </c>
+      <c r="D138" t="n">
+        <v>375.6</v>
+      </c>
+      <c r="E138" t="n">
+        <v>375.5</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-62385.37998821999</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>376.7</v>
+      </c>
+      <c r="C139" t="n">
+        <v>376.7</v>
+      </c>
+      <c r="D139" t="n">
+        <v>376.7</v>
+      </c>
+      <c r="E139" t="n">
+        <v>376.7</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-62383.97998821999</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>376.7</v>
+      </c>
+      <c r="C140" t="n">
+        <v>369.5</v>
+      </c>
+      <c r="D140" t="n">
+        <v>376.7</v>
+      </c>
+      <c r="E140" t="n">
+        <v>369.5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>456.93</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-62840.90998821999</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>378</v>
+      </c>
+      <c r="C141" t="n">
+        <v>378</v>
+      </c>
+      <c r="D141" t="n">
+        <v>378</v>
+      </c>
+      <c r="E141" t="n">
+        <v>378</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-62839.50998821999</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>369.5</v>
+      </c>
+      <c r="C142" t="n">
+        <v>369.5</v>
+      </c>
+      <c r="D142" t="n">
+        <v>369.5</v>
+      </c>
+      <c r="E142" t="n">
+        <v>369.5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>499.25</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-63338.75998821999</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>369.5</v>
+      </c>
+      <c r="C143" t="n">
+        <v>368.1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>369.5</v>
+      </c>
+      <c r="E143" t="n">
+        <v>368.1</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3207.81</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-66546.56998821998</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>368.1</v>
+      </c>
+      <c r="C144" t="n">
+        <v>368.1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>368.1</v>
+      </c>
+      <c r="E144" t="n">
+        <v>368.1</v>
+      </c>
+      <c r="F144" t="n">
+        <v>520</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-66546.56998821998</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>373</v>
+      </c>
+      <c r="C145" t="n">
+        <v>373</v>
+      </c>
+      <c r="D145" t="n">
+        <v>373</v>
+      </c>
+      <c r="E145" t="n">
+        <v>373</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-66545.16998821999</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>371.6</v>
+      </c>
+      <c r="C146" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>371.6</v>
+      </c>
+      <c r="E146" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>397.045</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-66942.21498821999</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>371.7</v>
+      </c>
+      <c r="C147" t="n">
+        <v>371.7</v>
+      </c>
+      <c r="D147" t="n">
+        <v>371.7</v>
+      </c>
+      <c r="E147" t="n">
+        <v>371.7</v>
+      </c>
+      <c r="F147" t="n">
+        <v>10</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-66932.21498821999</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="E148" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="F148" t="n">
+        <v>83.87</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-67016.08498821998</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="C149" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="E149" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.7914</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-67016.08498821998</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>368.2</v>
+      </c>
+      <c r="C150" t="n">
+        <v>368.1</v>
+      </c>
+      <c r="D150" t="n">
+        <v>368.2</v>
+      </c>
+      <c r="E150" t="n">
+        <v>368.1</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3350.7559</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-70366.84088821999</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>368.3</v>
+      </c>
+      <c r="C151" t="n">
         <v>368</v>
       </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="D151" t="n">
+        <v>368.3</v>
+      </c>
+      <c r="E151" t="n">
+        <v>368</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3240</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-73606.84088821999</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>371.7</v>
+      </c>
+      <c r="C152" t="n">
+        <v>371.7</v>
+      </c>
+      <c r="D152" t="n">
+        <v>371.7</v>
+      </c>
+      <c r="E152" t="n">
+        <v>371.7</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-73603.84088821999</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>368.1</v>
+      </c>
+      <c r="C153" t="n">
+        <v>368</v>
+      </c>
+      <c r="D153" t="n">
+        <v>368.1</v>
+      </c>
+      <c r="E153" t="n">
+        <v>368</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2960</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-76563.84088821999</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>368</v>
+      </c>
+      <c r="C154" t="n">
+        <v>368</v>
+      </c>
+      <c r="D154" t="n">
+        <v>368</v>
+      </c>
+      <c r="E154" t="n">
+        <v>368</v>
+      </c>
+      <c r="F154" t="n">
+        <v>535.1866</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-76563.84088821999</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>368</v>
+      </c>
+      <c r="C155" t="n">
+        <v>368</v>
+      </c>
+      <c r="D155" t="n">
+        <v>368</v>
+      </c>
+      <c r="E155" t="n">
+        <v>368</v>
+      </c>
+      <c r="F155" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-76563.84088821999</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>370.9</v>
+      </c>
+      <c r="C156" t="n">
+        <v>370.9</v>
+      </c>
+      <c r="D156" t="n">
+        <v>370.9</v>
+      </c>
+      <c r="E156" t="n">
+        <v>370.9</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-76562.44088821999</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>368</v>
+      </c>
+      <c r="C157" t="n">
+        <v>367.3</v>
+      </c>
+      <c r="D157" t="n">
+        <v>368</v>
+      </c>
+      <c r="E157" t="n">
+        <v>367.3</v>
+      </c>
+      <c r="F157" t="n">
+        <v>14000</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-90562.44088821999</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>367.4</v>
+      </c>
+      <c r="C158" t="n">
+        <v>367.4</v>
+      </c>
+      <c r="D158" t="n">
+        <v>367.4</v>
+      </c>
+      <c r="E158" t="n">
+        <v>367.4</v>
+      </c>
+      <c r="F158" t="n">
+        <v>211.4224</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-90351.01848822</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>370.9</v>
+      </c>
+      <c r="C159" t="n">
+        <v>370.9</v>
+      </c>
+      <c r="D159" t="n">
+        <v>370.9</v>
+      </c>
+      <c r="E159" t="n">
+        <v>370.9</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-90349.61848822</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>370.9</v>
+      </c>
+      <c r="C160" t="n">
+        <v>370.9</v>
+      </c>
+      <c r="D160" t="n">
+        <v>370.9</v>
+      </c>
+      <c r="E160" t="n">
+        <v>370.9</v>
+      </c>
+      <c r="F160" t="n">
+        <v>12</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-90349.61848822</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>370.9</v>
+      </c>
+      <c r="C161" t="n">
+        <v>370.9</v>
+      </c>
+      <c r="D161" t="n">
+        <v>370.9</v>
+      </c>
+      <c r="E161" t="n">
+        <v>370.9</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.383</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-90349.61848822</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>370.9</v>
+      </c>
+      <c r="C162" t="n">
+        <v>372.8</v>
+      </c>
+      <c r="D162" t="n">
+        <v>372.8</v>
+      </c>
+      <c r="E162" t="n">
+        <v>367</v>
+      </c>
+      <c r="F162" t="n">
+        <v>7463.8192</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-82885.79928822001</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>368.9</v>
+      </c>
+      <c r="C163" t="n">
+        <v>372.8</v>
+      </c>
+      <c r="D163" t="n">
+        <v>372.8</v>
+      </c>
+      <c r="E163" t="n">
+        <v>366.7</v>
+      </c>
+      <c r="F163" t="n">
+        <v>7174.8893</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-82885.79928822001</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>372.8</v>
+      </c>
+      <c r="C164" t="n">
+        <v>373.6</v>
+      </c>
+      <c r="D164" t="n">
+        <v>374.6</v>
+      </c>
+      <c r="E164" t="n">
+        <v>372.8</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1712</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-81173.79928822001</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>371.3</v>
+      </c>
+      <c r="C165" t="n">
+        <v>371.3</v>
+      </c>
+      <c r="D165" t="n">
+        <v>371.3</v>
+      </c>
+      <c r="E165" t="n">
+        <v>371.3</v>
+      </c>
+      <c r="F165" t="n">
+        <v>100.03</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-81273.82928822</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-25 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-25 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N165"/>
+  <dimension ref="A1:M165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-36582.65131139001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-36577.74101139001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-42070.20931139001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-42068.80931139001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>-42070.20931139001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>-42068.80931139001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-42467.39001139001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-40554.59801139001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>-43817.86121139001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-43828.38691139001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>-44392.38691139001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>-44392.38691139001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>-44392.38691139001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1672,15 @@
         <v>-44479.68917136001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>-44520.82897136</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,15 @@
         <v>-44520.82897136</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,15 @@
         <v>-44385.52897136</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1804,15 @@
         <v>-44421.72437136</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>-45413.99967136</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1870,15 @@
         <v>-47514.63557136</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,15 @@
         <v>-46493.22147136</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1936,15 @@
         <v>-46024.69017135999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>-47340.69017135999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>-47340.69017135999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2134,15 @@
         <v>-50313.85957135999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2167,15 @@
         <v>-51063.85957135999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,19 @@
         <v>-54750.52918821999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
+        <v>366.7</v>
+      </c>
+      <c r="J63" t="n">
+        <v>366.7</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2501,23 @@
         <v>-55453.65638821999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>370.7</v>
+      </c>
+      <c r="J64" t="n">
+        <v>366.7</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2542,23 @@
         <v>-55627.17808821999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>370.6</v>
+      </c>
+      <c r="J65" t="n">
+        <v>366.7</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2583,19 @@
         <v>-56173.64808821999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
+        <v>368</v>
+      </c>
+      <c r="J66" t="n">
+        <v>368</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,22 +2620,23 @@
         <v>-55064.70608821999</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>367.1</v>
       </c>
       <c r="J67" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="K67" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>368</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2836,26 +2661,23 @@
         <v>-55063.30608821999</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>367.5</v>
       </c>
       <c r="J68" t="n">
-        <v>367.5</v>
-      </c>
-      <c r="K68" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L68" t="inlineStr">
+        <v>368</v>
+      </c>
+      <c r="K68" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2880,26 +2702,19 @@
         <v>-55063.30608821999</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>369.9</v>
       </c>
       <c r="J69" t="n">
         <v>369.9</v>
       </c>
-      <c r="K69" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2924,26 +2739,23 @@
         <v>-55288.73228821999</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>369.9</v>
       </c>
       <c r="J70" t="n">
         <v>369.9</v>
       </c>
-      <c r="K70" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2968,26 +2780,23 @@
         <v>-55277.73228821999</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>367.5</v>
       </c>
       <c r="J71" t="n">
-        <v>367.5</v>
-      </c>
-      <c r="K71" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>369.9</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3012,24 +2821,23 @@
         <v>-55566.61198821999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>372</v>
+      </c>
+      <c r="J72" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3054,24 +2862,23 @@
         <v>-55555.61198821999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J73" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3096,24 +2903,23 @@
         <v>-55283.12838821999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>372</v>
+      </c>
+      <c r="J74" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3140,22 +2946,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3182,22 +2985,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3224,22 +3024,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3266,22 +3063,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3308,22 +3102,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3350,22 +3141,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3392,22 +3180,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3434,22 +3219,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3476,22 +3258,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3518,22 +3297,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3560,22 +3336,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3602,22 +3375,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3644,22 +3414,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3686,22 +3453,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3726,26 +3490,21 @@
         <v>-54761.84038821999</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>369</v>
-      </c>
-      <c r="K89" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>369.9</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3770,26 +3529,21 @@
         <v>-54911.84038821999</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>372.7</v>
-      </c>
-      <c r="K90" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>369.9</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3814,26 +3568,21 @@
         <v>-54567.51808821999</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>370</v>
-      </c>
-      <c r="K91" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>369.9</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3858,26 +3607,21 @@
         <v>-54932.09578821999</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>373.9</v>
-      </c>
-      <c r="K92" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>369.9</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3902,26 +3646,21 @@
         <v>-54932.09578821999</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>370</v>
-      </c>
-      <c r="K93" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>369.9</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3948,22 +3687,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3988,26 +3724,21 @@
         <v>-55311.90578821999</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>369</v>
-      </c>
-      <c r="K95" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>369.9</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4032,26 +3763,21 @@
         <v>-55843.90918821999</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>374.9</v>
-      </c>
-      <c r="K96" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>369.9</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4076,26 +3802,21 @@
         <v>-55397.33918821999</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>372</v>
-      </c>
-      <c r="K97" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>369.9</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4120,26 +3841,21 @@
         <v>-57303.69608821999</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>373.3</v>
-      </c>
-      <c r="K98" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>369.9</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4164,26 +3880,21 @@
         <v>-57028.06328821999</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>367.8</v>
-      </c>
-      <c r="K99" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>369.9</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4208,26 +3919,21 @@
         <v>-57026.06328821999</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>369</v>
-      </c>
-      <c r="K100" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>369.9</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4252,26 +3958,21 @@
         <v>-57545.12018822</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>373.3</v>
-      </c>
-      <c r="K101" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>369.9</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4296,26 +3997,21 @@
         <v>-57545.12018822</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>368.9</v>
-      </c>
-      <c r="K102" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>369.9</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4340,26 +4036,21 @@
         <v>-56196.91158822</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>368.9</v>
-      </c>
-      <c r="K103" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>369.9</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4384,26 +4075,21 @@
         <v>-55629.44478822</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>373.3</v>
-      </c>
-      <c r="K104" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>369.9</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4428,26 +4114,21 @@
         <v>-55920.56478822</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>374.5</v>
-      </c>
-      <c r="K105" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>369.9</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4472,26 +4153,23 @@
         <v>-55918.56478822</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="J106" t="n">
-        <v>370</v>
-      </c>
-      <c r="K106" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>369.9</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4516,26 +4194,21 @@
         <v>-56097.12478822</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>374.4</v>
-      </c>
-      <c r="K107" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>369.9</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4560,26 +4233,21 @@
         <v>-56101.77478822</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
         <v>369.9</v>
       </c>
-      <c r="K108" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4604,26 +4272,21 @@
         <v>-55921.72438822</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>368.9</v>
-      </c>
-      <c r="K109" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>369.9</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4650,22 +4313,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4690,26 +4350,21 @@
         <v>-56130.61228821999</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>371</v>
-      </c>
-      <c r="K111" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>369.9</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4736,22 +4391,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4778,22 +4430,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4818,26 +4467,21 @@
         <v>-56124.12438821999</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>374.9</v>
-      </c>
-      <c r="K114" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>369.9</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4864,22 +4508,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4906,22 +4547,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4948,22 +4586,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4990,22 +4625,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5032,22 +4664,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5074,22 +4703,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5116,22 +4742,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5158,22 +4781,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5200,22 +4820,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5242,22 +4859,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5284,22 +4898,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5326,22 +4937,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5368,22 +4976,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5410,22 +5015,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5452,22 +5054,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5494,22 +5093,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5536,22 +5132,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5578,22 +5171,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5620,22 +5210,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5662,22 +5249,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5704,22 +5288,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5746,22 +5327,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5788,22 +5366,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5830,22 +5405,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5872,22 +5444,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5914,22 +5483,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5956,22 +5522,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5998,22 +5561,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6040,22 +5600,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6082,22 +5639,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6124,22 +5678,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6166,22 +5717,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6208,22 +5756,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6250,22 +5795,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6292,22 +5834,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6334,22 +5873,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6374,24 +5910,23 @@
         <v>-73606.84088821999</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+        <v>368.1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6416,24 +5951,23 @@
         <v>-73603.84088821999</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+        <v>368</v>
+      </c>
+      <c r="J152" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6460,22 +5994,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6502,22 +6033,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6544,22 +6072,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6586,22 +6111,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6628,22 +6150,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6670,22 +6189,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6712,22 +6228,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6754,22 +6267,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6796,22 +6306,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6838,22 +6345,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6880,22 +6384,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6922,22 +6423,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6964,24 +6462,21 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-25 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-37895.81411139001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-37894.47411139001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-37894.47411139001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-37894.47411139001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-38481.59731139001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-38481.59731139001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-37603.83631139001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-36582.65131139001</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-36577.74101139001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-36577.74101139001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-36577.74101139001</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-36585.20931139001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-42070.20931139001</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-42068.80931139001</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-42070.20931139001</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-42068.80931139001</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-42467.39001139001</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-42414.59801139001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-40554.59801139001</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-43664.59801139001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-43664.59801139001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-43663.19801139001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-44064.86121139001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-43817.86121139001</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-43828.38691139001</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-44392.38691139001</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-44392.38691139001</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-44392.38691139001</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-44479.68917136001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-44520.82897136</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-44520.82897136</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-44385.52897136</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-44421.72437136</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-45413.99967136</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-47514.63557136</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-46493.22147136</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-46024.69017135999</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-47340.69017135999</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-47340.69017135999</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-50313.85957135999</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-51063.85957135999</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2398,11 +2398,17 @@
         <v>-54694.67587135999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>369.9</v>
+      </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2441,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,15 +2474,17 @@
         <v>-54750.52918821999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>366.7</v>
       </c>
-      <c r="J63" t="n">
-        <v>366.7</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,17 +2513,15 @@
         <v>-55453.65638821999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>370.7</v>
       </c>
-      <c r="J64" t="n">
-        <v>366.7</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -2542,17 +2552,15 @@
         <v>-55627.17808821999</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>370.6</v>
       </c>
-      <c r="J65" t="n">
-        <v>366.7</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -2583,15 +2591,17 @@
         <v>-56173.64808821999</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>368</v>
       </c>
-      <c r="J66" t="n">
-        <v>368</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2620,17 +2630,15 @@
         <v>-55064.70608821999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>367.1</v>
       </c>
-      <c r="J67" t="n">
-        <v>368</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -2661,17 +2669,15 @@
         <v>-55063.30608821999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>367.5</v>
       </c>
-      <c r="J68" t="n">
-        <v>368</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -2702,15 +2708,17 @@
         <v>-55063.30608821999</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>369.9</v>
       </c>
-      <c r="J69" t="n">
-        <v>369.9</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2739,17 +2747,15 @@
         <v>-55288.73228821999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>369.9</v>
       </c>
-      <c r="J70" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -2780,14 +2786,12 @@
         <v>-55277.73228821999</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>367.5</v>
       </c>
-      <c r="J71" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2821,14 +2825,12 @@
         <v>-55566.61198821999</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>372</v>
       </c>
-      <c r="J72" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2862,14 +2864,12 @@
         <v>-55555.61198821999</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>367.5</v>
       </c>
-      <c r="J73" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2903,14 +2903,12 @@
         <v>-55283.12838821999</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>372</v>
       </c>
-      <c r="J74" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2944,12 +2942,12 @@
         <v>-55283.12838821999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>369.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>373</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2983,12 +2981,12 @@
         <v>-56121.84838821999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>369.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>373</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3022,12 +3020,12 @@
         <v>-56056.94838821999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>369.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>368</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3061,12 +3059,12 @@
         <v>-57880.48588821998</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>369.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>369</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3100,12 +3098,12 @@
         <v>-57275.29698821998</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>369.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>367.2</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3139,12 +3137,12 @@
         <v>-59379.97208821998</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>369.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>373</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3178,12 +3176,12 @@
         <v>-59378.57208821998</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>369.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>368</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3217,12 +3215,12 @@
         <v>-59367.57208821998</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>369.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>372.8</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3259,9 +3257,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3295,12 +3291,12 @@
         <v>-59365.57208821998</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>369.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>372.7</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3337,9 +3333,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3376,9 +3370,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3412,12 +3404,12 @@
         <v>-60098.82478821999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>369.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>373.9</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3451,12 +3443,12 @@
         <v>-55051.18038821999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>369.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>368.1</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3493,9 +3485,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3532,9 +3522,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3571,9 +3559,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3610,9 +3596,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3649,9 +3633,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3688,9 +3670,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3727,9 +3707,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3766,9 +3744,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3805,9 +3781,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3844,9 +3818,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3880,12 +3852,12 @@
         <v>-57028.06328821999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>369.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>367.8</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3919,12 +3891,12 @@
         <v>-57026.06328821999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>369.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>369</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3961,9 +3933,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4000,9 +3970,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4036,12 +4004,12 @@
         <v>-56196.91158822</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>369.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>368.9</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4075,12 +4043,12 @@
         <v>-55629.44478822</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>369.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>373.3</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4117,9 +4085,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4153,14 +4119,12 @@
         <v>-55918.56478822</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>370</v>
       </c>
-      <c r="J106" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4197,9 +4161,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4236,9 +4198,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4275,9 +4235,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4314,9 +4272,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4353,9 +4309,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4392,9 +4346,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4431,9 +4383,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4470,9 +4420,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4509,9 +4457,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4548,9 +4494,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4587,9 +4531,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4626,9 +4568,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4665,9 +4605,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4704,9 +4642,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4743,9 +4679,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4782,9 +4716,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4821,9 +4753,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4860,9 +4790,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4899,9 +4827,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4938,9 +4864,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4977,9 +4901,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5016,9 +4938,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5055,9 +4975,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5094,9 +5012,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5133,9 +5049,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5172,9 +5086,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5211,9 +5123,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5250,9 +5160,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5289,9 +5197,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5328,9 +5234,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5367,9 +5271,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5406,9 +5308,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5445,9 +5345,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5484,9 +5382,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5523,9 +5419,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5562,9 +5456,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5601,9 +5493,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5640,9 +5530,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5679,9 +5567,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5718,9 +5604,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5757,9 +5641,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5796,9 +5678,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5835,9 +5715,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5874,9 +5752,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5910,14 +5786,10 @@
         <v>-73606.84088821999</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>368.1</v>
-      </c>
-      <c r="J151" t="n">
-        <v>369.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5951,14 +5823,12 @@
         <v>-73603.84088821999</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>368</v>
       </c>
-      <c r="J152" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5995,9 +5865,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6034,9 +5902,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6070,12 +5936,12 @@
         <v>-76563.84088821999</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>369.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>368</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6112,9 +5978,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6151,9 +6015,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6190,9 +6052,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6229,9 +6089,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6268,9 +6126,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6307,9 +6163,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6346,9 +6200,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6385,9 +6237,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6424,9 +6274,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6463,9 +6311,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>369.9</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6477,6 +6323,6 @@
       <c r="M165" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-25 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-37895.81411139001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-37894.47411139001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-37894.47411139001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-37894.47411139001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-38481.59731139001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-38481.59731139001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-37603.83631139001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-36582.65131139001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-36577.74101139001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-36577.74101139001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-36585.20931139001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-42068.80931139001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-42414.59801139001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-40554.59801139001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-43664.59801139001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-43664.59801139001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-43663.19801139001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-44064.86121139001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-44392.38691139001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-44458.03511139001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-44461.31771139001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-44469.05517136001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-44479.68917136001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -2437,9 +2437,11 @@
         <v>-54973.54867135999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>367</v>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2825,11 +2827,9 @@
         <v>-55566.61198821999</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>372</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -2942,11 +2942,9 @@
         <v>-55283.12838821999</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>373</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -2981,11 +2979,9 @@
         <v>-56121.84838821999</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>373</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3020,11 +3016,9 @@
         <v>-56056.94838821999</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3059,11 +3053,9 @@
         <v>-57880.48588821998</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>369</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3098,11 +3090,9 @@
         <v>-57275.29698821998</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>367.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3137,11 +3127,9 @@
         <v>-59379.97208821998</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>373</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3176,11 +3164,9 @@
         <v>-59378.57208821998</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3215,11 +3201,9 @@
         <v>-59367.57208821998</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>372.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -3291,11 +3275,9 @@
         <v>-59365.57208821998</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>372.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3404,11 +3386,9 @@
         <v>-60098.82478821999</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>373.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3443,11 +3423,9 @@
         <v>-55051.18038821999</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>368.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -3852,11 +3830,9 @@
         <v>-57028.06328821999</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>367.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -3891,11 +3867,9 @@
         <v>-57026.06328821999</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>369</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -4004,11 +3978,9 @@
         <v>-56196.91158822</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>368.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -4043,11 +4015,9 @@
         <v>-55629.44478822</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>373.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -4082,18 +4052,16 @@
         <v>-55920.56478822</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
@@ -4119,17 +4087,11 @@
         <v>-55918.56478822</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4158,15 +4120,11 @@
         <v>-56097.12478822</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4195,15 +4153,11 @@
         <v>-56101.77478822</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4236,11 +4190,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4269,15 +4219,11 @@
         <v>-56293.06438821999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4306,15 +4252,11 @@
         <v>-56130.61228821999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4343,15 +4285,11 @@
         <v>-56122.12438821999</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4380,15 +4318,11 @@
         <v>-56124.12438821999</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4417,15 +4351,11 @@
         <v>-56124.12438821999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4454,15 +4384,11 @@
         <v>-56120.72438821999</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4491,15 +4417,11 @@
         <v>-56172.72438821999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4528,15 +4450,11 @@
         <v>-56441.96438821999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4565,15 +4483,11 @@
         <v>-55695.96438821999</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4602,15 +4516,11 @@
         <v>-55693.96438821999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4639,15 +4549,11 @@
         <v>-56013.83438821999</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4676,15 +4582,11 @@
         <v>-56011.83438821999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4713,15 +4615,11 @@
         <v>-56981.02438821999</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4750,15 +4648,11 @@
         <v>-56882.58678822</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4787,15 +4681,11 @@
         <v>-57060.11678822</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4824,15 +4714,11 @@
         <v>-56971.60588821999</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4861,15 +4747,11 @@
         <v>-57105.62498821999</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4898,15 +4780,11 @@
         <v>-57025.70158821999</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4935,15 +4813,11 @@
         <v>-57201.57818822</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4972,15 +4846,11 @@
         <v>-58962.64918821999</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5009,15 +4879,11 @@
         <v>-59409.73918821999</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5050,11 +4916,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5083,15 +4945,11 @@
         <v>-59136.27918821999</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5120,15 +4978,11 @@
         <v>-59602.20998821999</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5157,15 +5011,11 @@
         <v>-60110.46998821999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5194,15 +5044,11 @@
         <v>-59906.77998821999</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5231,15 +5077,11 @@
         <v>-62386.77998821999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5272,11 +5114,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5309,11 +5147,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5342,15 +5176,11 @@
         <v>-62383.97998821999</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5379,15 +5209,11 @@
         <v>-62840.90998821999</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5416,15 +5242,11 @@
         <v>-62839.50998821999</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5453,15 +5275,11 @@
         <v>-63338.75998821999</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5490,15 +5308,11 @@
         <v>-66546.56998821998</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5531,11 +5345,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5568,11 +5378,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5605,11 +5411,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5642,11 +5444,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5679,11 +5477,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5716,11 +5510,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5753,11 +5543,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5790,11 +5576,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5823,17 +5605,11 @@
         <v>-73603.84088821999</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5866,11 +5642,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5903,11 +5675,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5936,17 +5704,11 @@
         <v>-76563.84088821999</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5979,11 +5741,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6016,11 +5774,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6053,11 +5807,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6090,11 +5840,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6127,11 +5873,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6164,11 +5906,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6201,11 +5939,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6238,11 +5972,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6275,11 +6005,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6312,17 +6038,13 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
       <c r="M165" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-25 BackTest STRAT.xlsx
@@ -583,7 +583,7 @@
         <v>-38481.59731139001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-38481.59731139001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-36577.74101139001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-36577.74101139001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-36585.20931139001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-42070.20931139001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-42068.80931139001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-42070.20931139001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-42414.59801139001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-43664.59801139001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-43663.19801139001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-44195.26121139001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-43817.86121139001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-43828.38691139001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-44392.38691139001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-44392.38691139001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-44392.38691139001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-44520.82897136</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-44520.82897136</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-44385.52897136</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-44421.72437136</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-45413.99967136</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-47514.63557136</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-46493.22147136</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-46024.69017135999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-47340.69017135999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-47340.69017135999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-47340.69017135999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-47324.70957135999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-50324.70957135999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-50313.85957135999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-51063.85957135999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-51063.85957135999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-50838.16317135999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-52828.15067136</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-52826.75067135999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-52826.75067135999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-52834.67587135999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,17 +2398,11 @@
         <v>-54694.67587135999</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>369.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2437,17 +2431,11 @@
         <v>-54973.54867135999</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>367</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2476,17 +2464,11 @@
         <v>-54750.52918821999</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>366.7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2515,17 +2497,11 @@
         <v>-55453.65638821999</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>370.7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2554,17 +2530,11 @@
         <v>-55627.17808821999</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>370.6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2593,17 +2563,11 @@
         <v>-56173.64808821999</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>368</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2632,17 +2596,11 @@
         <v>-55064.70608821999</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>367.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2676,12 +2634,10 @@
       <c r="I68" t="n">
         <v>367.5</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2715,10 +2671,12 @@
       <c r="I69" t="n">
         <v>369.9</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>367.5</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -2749,15 +2707,15 @@
         <v>-55288.73228821999</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>369.9</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>367.5</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -2793,7 +2751,9 @@
       <c r="I71" t="n">
         <v>367.5</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>367.5</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2827,10 +2787,12 @@
         <v>-55566.61198821999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>367.5</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2869,7 +2831,9 @@
       <c r="I73" t="n">
         <v>367.5</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>367.5</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2903,12 +2867,12 @@
         <v>-55283.12838821999</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>372</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>367.5</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2942,10 +2906,12 @@
         <v>-55283.12838821999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>367.5</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2979,10 +2945,12 @@
         <v>-56121.84838821999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>367.5</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3016,10 +2984,12 @@
         <v>-56056.94838821999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>367.5</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3056,7 +3026,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>367.5</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3090,10 +3062,14 @@
         <v>-57275.29698821998</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>367.2</v>
+      </c>
+      <c r="J79" t="n">
+        <v>367.5</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3130,7 +3106,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>367.5</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3167,7 +3145,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>367.5</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3201,17 +3181,19 @@
         <v>-59367.57208821998</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>367.5</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1</v>
+        <v>1.00969387755102</v>
       </c>
       <c r="M82" t="inlineStr"/>
     </row>
@@ -3238,15 +3220,11 @@
         <v>-59369.57208821998</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3275,15 +3253,11 @@
         <v>-59365.57208821998</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3312,15 +3286,15 @@
         <v>-59840.40208821998</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="J85" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3349,13 +3323,15 @@
         <v>-59838.40208821998</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>373.8</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -3386,13 +3362,15 @@
         <v>-60098.82478821999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>373.8</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -3423,10 +3401,14 @@
         <v>-55051.18038821999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>368.1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>373.8</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3460,10 +3442,14 @@
         <v>-54761.84038821999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>369</v>
+      </c>
+      <c r="J89" t="n">
+        <v>373.8</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3500,7 +3486,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>373.8</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3534,10 +3522,14 @@
         <v>-54567.51808821999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>370</v>
+      </c>
+      <c r="J91" t="n">
+        <v>373.8</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3574,7 +3566,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>373.8</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3608,10 +3602,14 @@
         <v>-54932.09578821999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>370</v>
+      </c>
+      <c r="J93" t="n">
+        <v>373.8</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3645,10 +3643,14 @@
         <v>-55320.69578821999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>370</v>
+      </c>
+      <c r="J94" t="n">
+        <v>373.8</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3682,10 +3684,14 @@
         <v>-55311.90578821999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>369</v>
+      </c>
+      <c r="J95" t="n">
+        <v>373.8</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3719,10 +3725,14 @@
         <v>-55843.90918821999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>374.9</v>
+      </c>
+      <c r="J96" t="n">
+        <v>373.8</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3756,10 +3766,14 @@
         <v>-55397.33918821999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>372</v>
+      </c>
+      <c r="J97" t="n">
+        <v>373.8</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3793,10 +3807,14 @@
         <v>-57303.69608821999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>373.3</v>
+      </c>
+      <c r="J98" t="n">
+        <v>373.8</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3830,10 +3848,14 @@
         <v>-57028.06328821999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>367.8</v>
+      </c>
+      <c r="J99" t="n">
+        <v>373.8</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3867,10 +3889,14 @@
         <v>-57026.06328821999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>369</v>
+      </c>
+      <c r="J100" t="n">
+        <v>373.8</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3904,10 +3930,14 @@
         <v>-57545.12018822</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>373.3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>373.8</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3941,10 +3971,14 @@
         <v>-57545.12018822</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>368.9</v>
+      </c>
+      <c r="J102" t="n">
+        <v>373.8</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3978,10 +4012,14 @@
         <v>-56196.91158822</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>368.9</v>
+      </c>
+      <c r="J103" t="n">
+        <v>373.8</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4015,10 +4053,14 @@
         <v>-55629.44478822</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>373.3</v>
+      </c>
+      <c r="J104" t="n">
+        <v>373.8</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4052,16 +4094,22 @@
         <v>-55920.56478822</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>374.5</v>
+      </c>
+      <c r="J105" t="n">
+        <v>373.8</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
       <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
@@ -4087,11 +4135,19 @@
         <v>-55918.56478822</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>370</v>
+      </c>
+      <c r="J106" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4120,11 +4176,19 @@
         <v>-56097.12478822</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>374.4</v>
+      </c>
+      <c r="J107" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4153,11 +4217,19 @@
         <v>-56101.77478822</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="J108" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4186,11 +4258,19 @@
         <v>-55921.72438822</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>368.9</v>
+      </c>
+      <c r="J109" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4219,11 +4299,19 @@
         <v>-56293.06438821999</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>374.5</v>
+      </c>
+      <c r="J110" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4252,11 +4340,19 @@
         <v>-56130.61228821999</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>371</v>
+      </c>
+      <c r="J111" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4285,11 +4381,19 @@
         <v>-56122.12438821999</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>374.6</v>
+      </c>
+      <c r="J112" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4318,11 +4422,19 @@
         <v>-56124.12438821999</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>375.7</v>
+      </c>
+      <c r="J113" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4351,11 +4463,19 @@
         <v>-56124.12438821999</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>374.9</v>
+      </c>
+      <c r="J114" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4384,11 +4504,19 @@
         <v>-56120.72438821999</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>374.9</v>
+      </c>
+      <c r="J115" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4417,11 +4545,19 @@
         <v>-56172.72438821999</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>376</v>
+      </c>
+      <c r="J116" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4450,11 +4586,19 @@
         <v>-56441.96438821999</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>375.9</v>
+      </c>
+      <c r="J117" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4483,11 +4627,19 @@
         <v>-55695.96438821999</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>372.2</v>
+      </c>
+      <c r="J118" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4516,11 +4668,19 @@
         <v>-55693.96438821999</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>373.2</v>
+      </c>
+      <c r="J119" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4549,11 +4709,17 @@
         <v>-56013.83438821999</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4582,11 +4748,17 @@
         <v>-56011.83438821999</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4615,11 +4787,17 @@
         <v>-56981.02438821999</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4648,11 +4826,17 @@
         <v>-56882.58678822</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4681,11 +4865,17 @@
         <v>-57060.11678822</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4714,11 +4904,17 @@
         <v>-56971.60588821999</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4747,11 +4943,17 @@
         <v>-57105.62498821999</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4780,11 +4982,17 @@
         <v>-57025.70158821999</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4813,11 +5021,17 @@
         <v>-57201.57818822</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4846,11 +5060,17 @@
         <v>-58962.64918821999</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4879,11 +5099,17 @@
         <v>-59409.73918821999</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4915,8 +5141,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4945,11 +5177,17 @@
         <v>-59136.27918821999</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4978,11 +5216,17 @@
         <v>-59602.20998821999</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5011,11 +5255,17 @@
         <v>-60110.46998821999</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5044,11 +5294,17 @@
         <v>-59906.77998821999</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5077,11 +5333,17 @@
         <v>-62386.77998821999</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5113,8 +5375,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5146,8 +5414,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5176,11 +5450,17 @@
         <v>-62383.97998821999</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5209,11 +5489,17 @@
         <v>-62840.90998821999</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5242,11 +5528,17 @@
         <v>-62839.50998821999</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5275,11 +5567,17 @@
         <v>-63338.75998821999</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5308,11 +5606,17 @@
         <v>-66546.56998821998</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5344,8 +5648,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5377,8 +5687,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5410,8 +5726,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5443,8 +5765,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5476,8 +5804,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5509,8 +5843,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5539,11 +5879,19 @@
         <v>-70366.84088821999</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5572,11 +5920,19 @@
         <v>-73606.84088821999</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>368.1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5605,11 +5961,19 @@
         <v>-73603.84088821999</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>368</v>
+      </c>
+      <c r="J152" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5638,11 +6002,19 @@
         <v>-76563.84088821999</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>371.7</v>
+      </c>
+      <c r="J153" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5671,11 +6043,19 @@
         <v>-76563.84088821999</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>368</v>
+      </c>
+      <c r="J154" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5704,11 +6084,19 @@
         <v>-76563.84088821999</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>368</v>
+      </c>
+      <c r="J155" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5737,11 +6125,19 @@
         <v>-76562.44088821999</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>368</v>
+      </c>
+      <c r="J156" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5770,11 +6166,19 @@
         <v>-90562.44088821999</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>370.9</v>
+      </c>
+      <c r="J157" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5806,8 +6210,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5839,8 +6249,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5872,8 +6288,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5902,11 +6324,19 @@
         <v>-90349.61848822</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>370.9</v>
+      </c>
+      <c r="J161" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5935,11 +6365,19 @@
         <v>-82885.79928822001</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>370.9</v>
+      </c>
+      <c r="J162" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5968,11 +6406,19 @@
         <v>-82885.79928822001</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>372.8</v>
+      </c>
+      <c r="J163" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6004,8 +6450,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6037,8 +6489,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-25 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-25 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M165"/>
+  <dimension ref="A1:L165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>41.4474</v>
       </c>
       <c r="G2" t="n">
-        <v>-37895.81411139001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1.34</v>
       </c>
       <c r="G3" t="n">
-        <v>-37894.47411139001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>117</v>
       </c>
       <c r="G4" t="n">
-        <v>-37894.47411139001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>126</v>
       </c>
       <c r="G5" t="n">
-        <v>-37894.47411139001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>587.1232</v>
       </c>
       <c r="G6" t="n">
-        <v>-38481.59731139001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>894</v>
       </c>
       <c r="G7" t="n">
-        <v>-38481.59731139001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>877.761</v>
       </c>
       <c r="G8" t="n">
-        <v>-37603.83631139001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1021.185</v>
       </c>
       <c r="G9" t="n">
-        <v>-36582.65131139001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>4.9103</v>
       </c>
       <c r="G10" t="n">
-        <v>-36577.74101139001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>2139.8978</v>
       </c>
       <c r="G11" t="n">
-        <v>-36577.74101139001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>3.3148</v>
       </c>
       <c r="G12" t="n">
-        <v>-36577.74101139001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>7.4683</v>
       </c>
       <c r="G13" t="n">
-        <v>-36585.20931139001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>5485</v>
       </c>
       <c r="G14" t="n">
-        <v>-42070.20931139001</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>1.4</v>
       </c>
       <c r="G15" t="n">
-        <v>-42068.80931139001</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1.4</v>
       </c>
       <c r="G16" t="n">
-        <v>-42070.20931139001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>1.4</v>
       </c>
       <c r="G17" t="n">
-        <v>-42068.80931139001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>398.5807</v>
       </c>
       <c r="G18" t="n">
-        <v>-42467.39001139001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>52.792</v>
       </c>
       <c r="G19" t="n">
-        <v>-42414.59801139001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>1860</v>
       </c>
       <c r="G20" t="n">
-        <v>-40554.59801139001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>3110</v>
       </c>
       <c r="G21" t="n">
-        <v>-43664.59801139001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>4155.2565</v>
       </c>
       <c r="G22" t="n">
-        <v>-43664.59801139001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>1.4</v>
       </c>
       <c r="G23" t="n">
-        <v>-43663.19801139001</v>
-      </c>
-      <c r="H23" t="n">
         <v>2</v>
       </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>401.6632</v>
       </c>
       <c r="G24" t="n">
-        <v>-44064.86121139001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>354</v>
       </c>
       <c r="G25" t="n">
-        <v>-44064.86121139001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>1.4</v>
       </c>
       <c r="G26" t="n">
-        <v>-44063.46121139001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>131.8</v>
       </c>
       <c r="G27" t="n">
-        <v>-44195.26121139001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>376</v>
       </c>
       <c r="G28" t="n">
-        <v>-43819.26121139001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>1.4</v>
       </c>
       <c r="G29" t="n">
-        <v>-43817.86121139001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>10.5257</v>
       </c>
       <c r="G30" t="n">
-        <v>-43828.38691139001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>564</v>
       </c>
       <c r="G31" t="n">
-        <v>-44392.38691139001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>152.7299</v>
       </c>
       <c r="G32" t="n">
-        <v>-44392.38691139001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>247.6636</v>
       </c>
       <c r="G33" t="n">
-        <v>-44392.38691139001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>2153.3136</v>
       </c>
       <c r="G34" t="n">
-        <v>-44392.38691139001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>80.1716</v>
       </c>
       <c r="G35" t="n">
-        <v>-44392.38691139001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>65.6482</v>
       </c>
       <c r="G36" t="n">
-        <v>-44458.03511139001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>3.2826</v>
       </c>
       <c r="G37" t="n">
-        <v>-44461.31771139001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>7.73745997</v>
       </c>
       <c r="G38" t="n">
-        <v>-44469.05517136001</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>10.634</v>
       </c>
       <c r="G39" t="n">
-        <v>-44479.68917136001</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>41.1398</v>
       </c>
       <c r="G40" t="n">
-        <v>-44520.82897136</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>21.8572</v>
       </c>
       <c r="G41" t="n">
-        <v>-44520.82897136</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>135.3</v>
       </c>
       <c r="G42" t="n">
-        <v>-44385.52897136</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>36.1954</v>
       </c>
       <c r="G43" t="n">
-        <v>-44421.72437136</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>992.2753</v>
       </c>
       <c r="G44" t="n">
-        <v>-45413.99967136</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>2100.6359</v>
       </c>
       <c r="G45" t="n">
-        <v>-47514.63557136</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>1021.4141</v>
       </c>
       <c r="G46" t="n">
-        <v>-46493.22147136</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>468.5313</v>
       </c>
       <c r="G47" t="n">
-        <v>-46024.69017135999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>1316</v>
       </c>
       <c r="G48" t="n">
-        <v>-47340.69017135999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>571.9557</v>
       </c>
       <c r="G49" t="n">
-        <v>-47340.69017135999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>870</v>
       </c>
       <c r="G50" t="n">
-        <v>-47340.69017135999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>15.9806</v>
       </c>
       <c r="G51" t="n">
-        <v>-47324.70957135999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>3000</v>
       </c>
       <c r="G52" t="n">
-        <v>-50324.70957135999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>10.85</v>
       </c>
       <c r="G53" t="n">
-        <v>-50313.85957135999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>750</v>
       </c>
       <c r="G54" t="n">
-        <v>-51063.85957135999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>1506.2791</v>
       </c>
       <c r="G55" t="n">
-        <v>-51063.85957135999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>225.6964</v>
       </c>
       <c r="G56" t="n">
-        <v>-50838.16317135999</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>1989.9875</v>
       </c>
       <c r="G57" t="n">
-        <v>-52828.15067136</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>1.4</v>
       </c>
       <c r="G58" t="n">
-        <v>-52826.75067135999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>8.7844</v>
       </c>
       <c r="G59" t="n">
-        <v>-52826.75067135999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>7.9252</v>
       </c>
       <c r="G60" t="n">
-        <v>-52834.67587135999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>1860</v>
       </c>
       <c r="G61" t="n">
-        <v>-54694.67587135999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>278.8728</v>
       </c>
       <c r="G62" t="n">
-        <v>-54973.54867135999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>223.01948314</v>
       </c>
       <c r="G63" t="n">
-        <v>-54750.52918821999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>703.1272</v>
       </c>
       <c r="G64" t="n">
-        <v>-55453.65638821999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>173.5217</v>
       </c>
       <c r="G65" t="n">
-        <v>-55627.17808821999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>546.47</v>
       </c>
       <c r="G66" t="n">
-        <v>-56173.64808821999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>1108.942</v>
       </c>
       <c r="G67" t="n">
-        <v>-55064.70608821999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,22 +2423,19 @@
         <v>1.4</v>
       </c>
       <c r="G68" t="n">
-        <v>-55063.30608821999</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>367.5</v>
       </c>
       <c r="I68" t="n">
         <v>367.5</v>
       </c>
-      <c r="J68" t="n">
-        <v>367.5</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2663,26 +2457,23 @@
         <v>662.36</v>
       </c>
       <c r="G69" t="n">
-        <v>-55063.30608821999</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>369.9</v>
       </c>
       <c r="I69" t="n">
-        <v>369.9</v>
-      </c>
-      <c r="J69" t="n">
-        <v>367.5</v>
-      </c>
-      <c r="K69" t="inlineStr">
+        <v>367.5</v>
+      </c>
+      <c r="J69" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2704,24 +2495,23 @@
         <v>225.4262</v>
       </c>
       <c r="G70" t="n">
-        <v>-55288.73228821999</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>367.5</v>
-      </c>
-      <c r="K70" t="inlineStr">
+        <v>369.9</v>
+      </c>
+      <c r="I70" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J70" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2743,26 +2533,23 @@
         <v>11</v>
       </c>
       <c r="G71" t="n">
-        <v>-55277.73228821999</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>367.5</v>
       </c>
       <c r="I71" t="n">
         <v>367.5</v>
       </c>
-      <c r="J71" t="n">
-        <v>367.5</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2784,24 +2571,23 @@
         <v>288.8797</v>
       </c>
       <c r="G72" t="n">
-        <v>-55566.61198821999</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>367.5</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>372</v>
+      </c>
+      <c r="I72" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2823,26 +2609,23 @@
         <v>11</v>
       </c>
       <c r="G73" t="n">
-        <v>-55555.61198821999</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>367.5</v>
       </c>
       <c r="I73" t="n">
         <v>367.5</v>
       </c>
-      <c r="J73" t="n">
-        <v>367.5</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2864,24 +2647,23 @@
         <v>272.4836</v>
       </c>
       <c r="G74" t="n">
-        <v>-55283.12838821999</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>367.5</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>372</v>
+      </c>
+      <c r="I74" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2903,24 +2685,21 @@
         <v>1462.5843</v>
       </c>
       <c r="G75" t="n">
-        <v>-55283.12838821999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>367.5</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2942,24 +2721,21 @@
         <v>838.72</v>
       </c>
       <c r="G76" t="n">
-        <v>-56121.84838821999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>367.5</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2981,24 +2757,21 @@
         <v>64.90000000000001</v>
       </c>
       <c r="G77" t="n">
-        <v>-56056.94838821999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>367.5</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3020,24 +2793,21 @@
         <v>1823.5375</v>
       </c>
       <c r="G78" t="n">
-        <v>-57880.48588821998</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>367.5</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3059,26 +2829,21 @@
         <v>605.1889</v>
       </c>
       <c r="G79" t="n">
-        <v>-57275.29698821998</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
-        <v>367.2</v>
-      </c>
-      <c r="J79" t="n">
-        <v>367.5</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3100,24 +2865,21 @@
         <v>2104.6751</v>
       </c>
       <c r="G80" t="n">
-        <v>-59379.97208821998</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>367.5</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3139,24 +2901,21 @@
         <v>1.4</v>
       </c>
       <c r="G81" t="n">
-        <v>-59378.57208821998</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>367.5</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3178,24 +2937,21 @@
         <v>11</v>
       </c>
       <c r="G82" t="n">
-        <v>-59367.57208821998</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>367.5</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1.00969387755102</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3217,18 +2973,21 @@
         <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>-59369.57208821998</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3250,18 +3009,21 @@
         <v>4</v>
       </c>
       <c r="G84" t="n">
-        <v>-59365.57208821998</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3283,22 +3045,21 @@
         <v>474.83</v>
       </c>
       <c r="G85" t="n">
-        <v>-59840.40208821998</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="J85" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3320,24 +3081,21 @@
         <v>2</v>
       </c>
       <c r="G86" t="n">
-        <v>-59838.40208821998</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3359,24 +3117,21 @@
         <v>260.4227</v>
       </c>
       <c r="G87" t="n">
-        <v>-60098.82478821999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3398,26 +3153,21 @@
         <v>5047.6444</v>
       </c>
       <c r="G88" t="n">
-        <v>-55051.18038821999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="n">
-        <v>368.1</v>
-      </c>
-      <c r="J88" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3439,26 +3189,21 @@
         <v>289.34</v>
       </c>
       <c r="G89" t="n">
-        <v>-54761.84038821999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="n">
-        <v>369</v>
-      </c>
-      <c r="J89" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3480,24 +3225,21 @@
         <v>150</v>
       </c>
       <c r="G90" t="n">
-        <v>-54911.84038821999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3519,26 +3261,21 @@
         <v>344.3223</v>
       </c>
       <c r="G91" t="n">
-        <v>-54567.51808821999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="n">
-        <v>370</v>
-      </c>
-      <c r="J91" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3560,24 +3297,21 @@
         <v>364.5777</v>
       </c>
       <c r="G92" t="n">
-        <v>-54932.09578821999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3599,26 +3333,21 @@
         <v>410.72</v>
       </c>
       <c r="G93" t="n">
-        <v>-54932.09578821999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
-        <v>370</v>
-      </c>
-      <c r="J93" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3640,26 +3369,21 @@
         <v>388.6</v>
       </c>
       <c r="G94" t="n">
-        <v>-55320.69578821999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
-        <v>370</v>
-      </c>
-      <c r="J94" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3681,26 +3405,21 @@
         <v>8.789999999999999</v>
       </c>
       <c r="G95" t="n">
-        <v>-55311.90578821999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
-        <v>369</v>
-      </c>
-      <c r="J95" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3722,26 +3441,21 @@
         <v>532.0034000000001</v>
       </c>
       <c r="G96" t="n">
-        <v>-55843.90918821999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="n">
-        <v>374.9</v>
-      </c>
-      <c r="J96" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3763,26 +3477,21 @@
         <v>446.57</v>
       </c>
       <c r="G97" t="n">
-        <v>-55397.33918821999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
-        <v>372</v>
-      </c>
-      <c r="J97" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3804,26 +3513,21 @@
         <v>1906.3569</v>
       </c>
       <c r="G98" t="n">
-        <v>-57303.69608821999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="n">
-        <v>373.3</v>
-      </c>
-      <c r="J98" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3845,26 +3549,21 @@
         <v>275.6328</v>
       </c>
       <c r="G99" t="n">
-        <v>-57028.06328821999</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="n">
-        <v>367.8</v>
-      </c>
-      <c r="J99" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3886,26 +3585,21 @@
         <v>2</v>
       </c>
       <c r="G100" t="n">
-        <v>-57026.06328821999</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="n">
-        <v>369</v>
-      </c>
-      <c r="J100" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3927,26 +3621,21 @@
         <v>519.0569</v>
       </c>
       <c r="G101" t="n">
-        <v>-57545.12018822</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="n">
-        <v>373.3</v>
-      </c>
-      <c r="J101" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3968,26 +3657,21 @@
         <v>1350.2171</v>
       </c>
       <c r="G102" t="n">
-        <v>-57545.12018822</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="n">
-        <v>368.9</v>
-      </c>
-      <c r="J102" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4009,26 +3693,21 @@
         <v>1348.2086</v>
       </c>
       <c r="G103" t="n">
-        <v>-56196.91158822</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="n">
-        <v>368.9</v>
-      </c>
-      <c r="J103" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4050,26 +3729,21 @@
         <v>567.4668</v>
       </c>
       <c r="G104" t="n">
-        <v>-55629.44478822</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>373.3</v>
-      </c>
-      <c r="J104" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4091,26 +3765,21 @@
         <v>291.12</v>
       </c>
       <c r="G105" t="n">
-        <v>-55920.56478822</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
-        <v>374.5</v>
-      </c>
-      <c r="J105" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4132,26 +3801,21 @@
         <v>2</v>
       </c>
       <c r="G106" t="n">
-        <v>-55918.56478822</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="n">
-        <v>370</v>
-      </c>
-      <c r="J106" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4173,26 +3837,21 @@
         <v>178.56</v>
       </c>
       <c r="G107" t="n">
-        <v>-56097.12478822</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
-        <v>374.4</v>
-      </c>
-      <c r="J107" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4214,26 +3873,21 @@
         <v>4.65</v>
       </c>
       <c r="G108" t="n">
-        <v>-56101.77478822</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="n">
-        <v>369.9</v>
-      </c>
-      <c r="J108" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4255,26 +3909,21 @@
         <v>180.0504</v>
       </c>
       <c r="G109" t="n">
-        <v>-55921.72438822</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="n">
-        <v>368.9</v>
-      </c>
-      <c r="J109" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4296,26 +3945,21 @@
         <v>371.34</v>
       </c>
       <c r="G110" t="n">
-        <v>-56293.06438821999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="n">
-        <v>374.5</v>
-      </c>
-      <c r="J110" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4337,26 +3981,21 @@
         <v>162.4521</v>
       </c>
       <c r="G111" t="n">
-        <v>-56130.61228821999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="n">
-        <v>371</v>
-      </c>
-      <c r="J111" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4378,26 +4017,21 @@
         <v>8.4879</v>
       </c>
       <c r="G112" t="n">
-        <v>-56122.12438821999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="n">
-        <v>374.6</v>
-      </c>
-      <c r="J112" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4419,26 +4053,21 @@
         <v>2</v>
       </c>
       <c r="G113" t="n">
-        <v>-56124.12438821999</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="n">
-        <v>375.7</v>
-      </c>
-      <c r="J113" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4460,26 +4089,21 @@
         <v>308.4148</v>
       </c>
       <c r="G114" t="n">
-        <v>-56124.12438821999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="n">
-        <v>374.9</v>
-      </c>
-      <c r="J114" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4501,26 +4125,21 @@
         <v>3.4</v>
       </c>
       <c r="G115" t="n">
-        <v>-56120.72438821999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="n">
-        <v>374.9</v>
-      </c>
-      <c r="J115" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4542,26 +4161,21 @@
         <v>52</v>
       </c>
       <c r="G116" t="n">
-        <v>-56172.72438821999</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="n">
-        <v>376</v>
-      </c>
-      <c r="J116" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4583,26 +4197,21 @@
         <v>269.24</v>
       </c>
       <c r="G117" t="n">
-        <v>-56441.96438821999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="n">
-        <v>375.9</v>
-      </c>
-      <c r="J117" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4624,26 +4233,21 @@
         <v>746</v>
       </c>
       <c r="G118" t="n">
-        <v>-55695.96438821999</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="n">
-        <v>372.2</v>
-      </c>
-      <c r="J118" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4665,26 +4269,21 @@
         <v>2</v>
       </c>
       <c r="G119" t="n">
-        <v>-55693.96438821999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="n">
-        <v>373.2</v>
-      </c>
-      <c r="J119" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,24 +4305,21 @@
         <v>319.87</v>
       </c>
       <c r="G120" t="n">
-        <v>-56013.83438821999</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4745,24 +4341,21 @@
         <v>2</v>
       </c>
       <c r="G121" t="n">
-        <v>-56011.83438821999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4784,24 +4377,21 @@
         <v>969.1900000000001</v>
       </c>
       <c r="G122" t="n">
-        <v>-56981.02438821999</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4823,24 +4413,21 @@
         <v>98.4376</v>
       </c>
       <c r="G123" t="n">
-        <v>-56882.58678822</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4862,24 +4449,21 @@
         <v>177.53</v>
       </c>
       <c r="G124" t="n">
-        <v>-57060.11678822</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4901,24 +4485,21 @@
         <v>88.51090000000001</v>
       </c>
       <c r="G125" t="n">
-        <v>-56971.60588821999</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4940,24 +4521,21 @@
         <v>134.0191</v>
       </c>
       <c r="G126" t="n">
-        <v>-57105.62498821999</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4979,24 +4557,21 @@
         <v>79.9234</v>
       </c>
       <c r="G127" t="n">
-        <v>-57025.70158821999</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5018,24 +4593,21 @@
         <v>175.8766</v>
       </c>
       <c r="G128" t="n">
-        <v>-57201.57818822</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5057,24 +4629,21 @@
         <v>1761.071</v>
       </c>
       <c r="G129" t="n">
-        <v>-58962.64918821999</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5096,24 +4665,21 @@
         <v>447.09</v>
       </c>
       <c r="G130" t="n">
-        <v>-59409.73918821999</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5135,24 +4701,21 @@
         <v>272.06</v>
       </c>
       <c r="G131" t="n">
-        <v>-59137.67918821999</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5174,24 +4737,21 @@
         <v>1.4</v>
       </c>
       <c r="G132" t="n">
-        <v>-59136.27918821999</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5213,24 +4773,21 @@
         <v>465.9308</v>
       </c>
       <c r="G133" t="n">
-        <v>-59602.20998821999</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5252,24 +4809,21 @@
         <v>508.26</v>
       </c>
       <c r="G134" t="n">
-        <v>-60110.46998821999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5291,24 +4845,21 @@
         <v>203.69</v>
       </c>
       <c r="G135" t="n">
-        <v>-59906.77998821999</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5330,24 +4881,21 @@
         <v>2480</v>
       </c>
       <c r="G136" t="n">
-        <v>-62386.77998821999</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5369,24 +4917,21 @@
         <v>1.4</v>
       </c>
       <c r="G137" t="n">
-        <v>-62385.37998821999</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5408,24 +4953,21 @@
         <v>2.8</v>
       </c>
       <c r="G138" t="n">
-        <v>-62385.37998821999</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5447,24 +4989,21 @@
         <v>1.4</v>
       </c>
       <c r="G139" t="n">
-        <v>-62383.97998821999</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5486,24 +5025,21 @@
         <v>456.93</v>
       </c>
       <c r="G140" t="n">
-        <v>-62840.90998821999</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5525,24 +5061,21 @@
         <v>1.4</v>
       </c>
       <c r="G141" t="n">
-        <v>-62839.50998821999</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5564,24 +5097,21 @@
         <v>499.25</v>
       </c>
       <c r="G142" t="n">
-        <v>-63338.75998821999</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5603,24 +5133,21 @@
         <v>3207.81</v>
       </c>
       <c r="G143" t="n">
-        <v>-66546.56998821998</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5642,24 +5169,21 @@
         <v>520</v>
       </c>
       <c r="G144" t="n">
-        <v>-66546.56998821998</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5681,24 +5205,21 @@
         <v>1.4</v>
       </c>
       <c r="G145" t="n">
-        <v>-66545.16998821999</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5720,24 +5241,21 @@
         <v>397.045</v>
       </c>
       <c r="G146" t="n">
-        <v>-66942.21498821999</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5759,24 +5277,21 @@
         <v>10</v>
       </c>
       <c r="G147" t="n">
-        <v>-66932.21498821999</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5798,24 +5313,21 @@
         <v>83.87</v>
       </c>
       <c r="G148" t="n">
-        <v>-67016.08498821998</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5837,24 +5349,21 @@
         <v>0.7914</v>
       </c>
       <c r="G149" t="n">
-        <v>-67016.08498821998</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5876,26 +5385,21 @@
         <v>3350.7559</v>
       </c>
       <c r="G150" t="n">
-        <v>-70366.84088821999</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="n">
-        <v>369.1</v>
-      </c>
-      <c r="J150" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5917,26 +5421,21 @@
         <v>3240</v>
       </c>
       <c r="G151" t="n">
-        <v>-73606.84088821999</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="n">
-        <v>368.1</v>
-      </c>
-      <c r="J151" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5958,26 +5457,21 @@
         <v>3</v>
       </c>
       <c r="G152" t="n">
-        <v>-73603.84088821999</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="n">
-        <v>368</v>
-      </c>
-      <c r="J152" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5999,26 +5493,21 @@
         <v>2960</v>
       </c>
       <c r="G153" t="n">
-        <v>-76563.84088821999</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="n">
-        <v>371.7</v>
-      </c>
-      <c r="J153" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6040,26 +5529,21 @@
         <v>535.1866</v>
       </c>
       <c r="G154" t="n">
-        <v>-76563.84088821999</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="n">
-        <v>368</v>
-      </c>
-      <c r="J154" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6081,26 +5565,21 @@
         <v>5000</v>
       </c>
       <c r="G155" t="n">
-        <v>-76563.84088821999</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="n">
-        <v>368</v>
-      </c>
-      <c r="J155" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6122,26 +5601,21 @@
         <v>1.4</v>
       </c>
       <c r="G156" t="n">
-        <v>-76562.44088821999</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="n">
-        <v>368</v>
-      </c>
-      <c r="J156" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6163,26 +5637,21 @@
         <v>14000</v>
       </c>
       <c r="G157" t="n">
-        <v>-90562.44088821999</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="n">
-        <v>370.9</v>
-      </c>
-      <c r="J157" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6204,24 +5673,21 @@
         <v>211.4224</v>
       </c>
       <c r="G158" t="n">
-        <v>-90351.01848822</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6243,24 +5709,21 @@
         <v>1.4</v>
       </c>
       <c r="G159" t="n">
-        <v>-90349.61848822</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6282,24 +5745,21 @@
         <v>12</v>
       </c>
       <c r="G160" t="n">
-        <v>-90349.61848822</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6321,26 +5781,21 @@
         <v>0.383</v>
       </c>
       <c r="G161" t="n">
-        <v>-90349.61848822</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="n">
-        <v>370.9</v>
-      </c>
-      <c r="J161" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6362,26 +5817,21 @@
         <v>7463.8192</v>
       </c>
       <c r="G162" t="n">
-        <v>-82885.79928822001</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="n">
-        <v>370.9</v>
-      </c>
-      <c r="J162" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6403,26 +5853,21 @@
         <v>7174.8893</v>
       </c>
       <c r="G163" t="n">
-        <v>-82885.79928822001</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="n">
-        <v>372.8</v>
-      </c>
-      <c r="J163" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>367.5</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6444,24 +5889,21 @@
         <v>1712</v>
       </c>
       <c r="G164" t="n">
-        <v>-81173.79928822001</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6483,24 +5925,21 @@
         <v>100.03</v>
       </c>
       <c r="G165" t="n">
-        <v>-81273.82928822</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
